--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$185</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="545">
   <si>
     <t>文件名</t>
   </si>
@@ -1588,10 +1588,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检测ERP、平台的追踪号是否一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/auto/auto_smt_exportIssue auto_newExportIssue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1669,6 +1665,34 @@
   </si>
   <si>
     <t>admin/auto/auto_cdiscount/autoSubmitShippingCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓暂时未开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/slme_auto_cron/backup_products_data.sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23点05分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份产品数据供v3下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测ERP、平台的追踪号是否一致，如果不一致更新追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1807,11 +1831,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H184" totalsRowShown="0">
-  <autoFilter ref="A1:H184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H185" totalsRowShown="0">
+  <autoFilter ref="A1:H185">
     <filterColumn colId="1">
       <filters>
-        <filter val="lazada"/>
+        <filter val="aliexpress"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4"/>
@@ -2117,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197"/>
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2128,7 +2152,7 @@
     <col min="1" max="1" width="64.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="91.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
@@ -2161,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2184,9 +2208,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2207,7 +2231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -2230,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -2253,9 +2277,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2276,18 +2300,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2310,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2356,7 +2380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2379,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2425,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2448,7 +2472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2471,7 +2495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2542,7 +2566,7 @@
     </row>
     <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2634,7 +2658,7 @@
     </row>
     <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -2954,7 +2978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -2977,7 +3001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3000,7 +3024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -3023,7 +3047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -3324,7 +3348,7 @@
     </row>
     <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B53" t="s">
         <v>150</v>
@@ -3642,7 +3666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>187</v>
       </c>
@@ -3728,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -3748,7 +3772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -4089,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4273,12 +4297,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
         <v>269</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>91</v>
@@ -4295,7 +4319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
         <v>271</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
         <v>275</v>
       </c>
@@ -4339,7 +4363,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
         <v>277</v>
       </c>
@@ -4361,7 +4385,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="11" t="s">
         <v>281</v>
       </c>
@@ -4383,7 +4407,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="11" t="s">
         <v>285</v>
       </c>
@@ -4405,7 +4429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="11" t="s">
         <v>288</v>
       </c>
@@ -4427,7 +4451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>291</v>
       </c>
@@ -4894,7 +4918,7 @@
         <v>345</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>346</v>
@@ -5376,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>410</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1">
@@ -6027,7 +6051,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1">
+    <row r="178" spans="1:8">
       <c r="A178" s="15" t="s">
         <v>510</v>
       </c>
@@ -6047,7 +6071,7 @@
       <c r="G178" s="16"/>
       <c r="H178" s="15"/>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8">
       <c r="A179" s="15" t="s">
         <v>513</v>
       </c>
@@ -6067,7 +6091,7 @@
       <c r="G179" s="16"/>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="15" t="s">
         <v>514</v>
       </c>
@@ -6078,7 +6102,7 @@
         <v>515</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>209</v>
@@ -6087,36 +6111,36 @@
       <c r="G180" s="16"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" spans="1:8" hidden="1">
+    <row r="181" spans="1:8">
       <c r="A181" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
       <c r="G181" s="16"/>
       <c r="H181" s="15"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="15"/>
@@ -6125,16 +6149,16 @@
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C183" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D183" s="15" t="s">
         <v>532</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>533</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="15"/>
@@ -6143,32 +6167,50 @@
     </row>
     <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C184" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>536</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
       <c r="G184" s="16"/>
       <c r="H184" s="15"/>
     </row>
+    <row r="185" spans="1:8" hidden="1">
+      <c r="A185" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E185" s="16"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E184">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E185">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F184">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F185">
       <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G184">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G185">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -1835,7 +1835,7 @@
   <autoFilter ref="A1:H185">
     <filterColumn colId="1">
       <filters>
-        <filter val="aliexpress"/>
+        <filter val="ebay"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4"/>
@@ -2144,7 +2144,7 @@
   <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2185,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
         <v>522</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
         <v>520</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>518</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>523</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="4" t="s">
         <v>187</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>190</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>218</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>226</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>231</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>251</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>253</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>256</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>258</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="6" t="s">
         <v>269</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="9" t="s">
         <v>271</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="9" t="s">
         <v>275</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="9" t="s">
         <v>277</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="11" t="s">
         <v>281</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="11" t="s">
         <v>285</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="11" t="s">
         <v>288</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="9" t="s">
         <v>291</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="9" t="s">
         <v>325</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="9" t="s">
         <v>329</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
         <v>333</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
         <v>336</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="9" t="s">
         <v>339</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="9" t="s">
         <v>342</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="9" t="s">
         <v>345</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="15" t="s">
         <v>510</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="G178" s="16"/>
       <c r="H178" s="15"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="15" t="s">
         <v>513</v>
       </c>
@@ -6091,7 +6091,7 @@
       <c r="G179" s="16"/>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="15" t="s">
         <v>514</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="G180" s="16"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="15" t="s">
         <v>524</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="G181" s="16"/>
       <c r="H181" s="15"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="15" t="s">
         <v>525</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="G183" s="16"/>
       <c r="H183" s="15"/>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184" s="15" t="s">
         <v>533</v>
       </c>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="系统定时任务列表" sheetId="1" r:id="rId1"/>
+    <sheet name="组员负责模块分配" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$185</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="563">
   <si>
     <t>文件名</t>
   </si>
@@ -345,9 +345,6 @@
     <t>停产或无库存的sku自动下架</t>
   </si>
   <si>
-    <t>admin/auto/auto_lazada index</t>
-  </si>
-  <si>
     <t>lazada</t>
   </si>
   <si>
@@ -1020,18 +1017,12 @@
     <t>v3里面没有特采的逻辑</t>
   </si>
   <si>
-    <t>autoSetHwcItemQuantity.php</t>
-  </si>
-  <si>
     <t>设置海外仓设Item在线数量</t>
   </si>
   <si>
     <t>海外仓暂未开发</t>
   </si>
   <si>
-    <t>autoSetItemQuantityZero-test.php</t>
-  </si>
-  <si>
     <t>每18分钟</t>
   </si>
   <si>
@@ -1320,9 +1311,6 @@
     <t>头程发货，少发商品SKU</t>
   </si>
   <si>
-    <t>AutoSendMailWithSales.php</t>
-  </si>
-  <si>
     <t>早上7点05分</t>
   </si>
   <si>
@@ -1336,9 +1324,6 @@
   </si>
   <si>
     <t>到货3天未质检sku邮件推送</t>
-  </si>
-  <si>
-    <t>AutoMarkProductsWithNoReplenishment.php</t>
   </si>
   <si>
     <t>下午15点20</t>
@@ -1693,6 +1678,100 @@
   </si>
   <si>
     <t>amazon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSendMailWithSales.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常安堤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李达标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李利峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭欧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器维护；erp系统逻辑性能优化；紧急任务或bug开发；开发需求沟通、整理、分配；组员开发指导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT部人员日常工作分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁豪真</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务需求整理确认；需求文档撰写；开发文档整理；
+开发效果测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责功能模块任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.利峰负责的2个平台抓单、刊登、标记问题不是太多，所以ebay，wish维护归到利峰下面。实际工作中可以根据工作量调整给其他开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipress平台刊登标记发货等；产品模块；图片服务器模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>joom平台；仓库模块；物流api对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazada,cd平台；采购模块；物流api对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_lazada index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish平台刊登抓单,平台标记发货；
+ebay平台相关（抓单，message,case等)；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>何建成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetItemQuantityZero-test.php（v1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetHwcItemQuantity.php（v1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoMarkProductsWithNoReplenishment.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1700,7 +1779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,8 +1801,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,13 +1865,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1769,7 +1910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1821,6 +1962,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1835,7 +1997,7 @@
   <autoFilter ref="A1:H185">
     <filterColumn colId="1">
       <filters>
-        <filter val="ebay"/>
+        <filter val="海外仓"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4"/>
@@ -2144,7 +2306,7 @@
   <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2210,13 +2372,13 @@
     </row>
     <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2233,7 +2395,7 @@
     </row>
     <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2256,7 +2418,7 @@
     </row>
     <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2279,7 +2441,7 @@
     </row>
     <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2302,13 +2464,13 @@
     </row>
     <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1">
@@ -2566,7 +2728,7 @@
     </row>
     <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2587,7 +2749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2610,9 +2772,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -2633,7 +2795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2656,9 +2818,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -2679,7 +2841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2702,7 +2864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2748,7 +2910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2771,7 +2933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2794,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2817,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2840,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2980,22 +3142,22 @@
     </row>
     <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>95</v>
       </c>
       <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -3003,16 +3165,16 @@
     </row>
     <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
@@ -3026,16 +3188,16 @@
     </row>
     <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -3049,16 +3211,16 @@
     </row>
     <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -3072,16 +3234,16 @@
     </row>
     <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -3095,16 +3257,16 @@
     </row>
     <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>122</v>
-      </c>
-      <c r="D42" t="s">
-        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -3118,16 +3280,16 @@
     </row>
     <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -3141,16 +3303,16 @@
     </row>
     <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>129</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3164,16 +3326,16 @@
     </row>
     <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -3187,16 +3349,16 @@
     </row>
     <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
         <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -3210,16 +3372,16 @@
     </row>
     <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -3233,16 +3395,16 @@
     </row>
     <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
       </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>137</v>
-      </c>
-      <c r="D48" t="s">
-        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3256,16 +3418,16 @@
     </row>
     <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -3279,16 +3441,16 @@
     </row>
     <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
         <v>142</v>
       </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>143</v>
-      </c>
-      <c r="D50" t="s">
-        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3302,16 +3464,16 @@
     </row>
     <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
@@ -3325,16 +3487,16 @@
     </row>
     <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
         <v>147</v>
       </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>148</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3348,16 +3510,16 @@
     </row>
     <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" t="s">
         <v>150</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>151</v>
-      </c>
-      <c r="D53" t="s">
-        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -3368,16 +3530,16 @@
     </row>
     <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -3388,16 +3550,16 @@
     </row>
     <row r="55" spans="1:7" hidden="1">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -3408,16 +3570,16 @@
     </row>
     <row r="56" spans="1:7" hidden="1">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
         <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -3428,16 +3590,16 @@
     </row>
     <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
         <v>159</v>
       </c>
-      <c r="B57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>161</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -3448,16 +3610,16 @@
     </row>
     <row r="58" spans="1:7" hidden="1">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
         <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
@@ -3468,16 +3630,16 @@
     </row>
     <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
         <v>164</v>
       </c>
-      <c r="B59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>166</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -3488,16 +3650,16 @@
     </row>
     <row r="60" spans="1:7" hidden="1">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
         <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -3508,16 +3670,16 @@
     </row>
     <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -3528,16 +3690,16 @@
     </row>
     <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
         <v>171</v>
       </c>
-      <c r="B62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>172</v>
-      </c>
-      <c r="D62" t="s">
-        <v>173</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
@@ -3548,16 +3710,16 @@
     </row>
     <row r="63" spans="1:7" hidden="1">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
@@ -3568,16 +3730,16 @@
     </row>
     <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
@@ -3588,16 +3750,16 @@
     </row>
     <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
         <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
@@ -3608,16 +3770,16 @@
     </row>
     <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
         <v>180</v>
       </c>
-      <c r="B66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>181</v>
-      </c>
-      <c r="D66" t="s">
-        <v>182</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
@@ -3628,16 +3790,16 @@
     </row>
     <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -3648,16 +3810,16 @@
     </row>
     <row r="68" spans="1:8" hidden="1">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
@@ -3668,16 +3830,16 @@
     </row>
     <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -3688,18 +3850,18 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>12</v>
@@ -3712,16 +3874,16 @@
     </row>
     <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>12</v>
@@ -3732,9 +3894,9 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
         <v>59</v>
@@ -3743,7 +3905,7 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -3754,16 +3916,16 @@
     </row>
     <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
         <v>198</v>
       </c>
-      <c r="B73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>199</v>
-      </c>
-      <c r="D73" t="s">
-        <v>200</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -3774,16 +3936,16 @@
     </row>
     <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
         <v>201</v>
       </c>
-      <c r="B74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>202</v>
-      </c>
-      <c r="D74" t="s">
-        <v>203</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
@@ -3794,13 +3956,13 @@
     </row>
     <row r="75" spans="1:8" hidden="1">
       <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" t="s">
         <v>204</v>
-      </c>
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" t="s">
-        <v>205</v>
       </c>
       <c r="D75" t="s">
         <v>104</v>
@@ -3814,22 +3976,22 @@
     </row>
     <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s">
         <v>207</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" t="s">
         <v>209</v>
-      </c>
-      <c r="F76" t="s">
-        <v>210</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>18</v>
@@ -3837,101 +3999,101 @@
     </row>
     <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="E78" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
       </c>
       <c r="C79" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" t="s">
         <v>219</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1">
+      <c r="A80" t="s">
         <v>220</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F79" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>221</v>
       </c>
       <c r="B80" t="s">
         <v>59</v>
       </c>
       <c r="C80" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" t="s">
         <v>222</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1">
+      <c r="A81" t="s">
         <v>223</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F80" t="s">
-        <v>210</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>224</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -3940,44 +4102,44 @@
         <v>65</v>
       </c>
       <c r="D81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1">
+      <c r="A82" t="s">
         <v>225</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" t="s">
-        <v>210</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>226</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
       </c>
       <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" t="s">
         <v>227</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1">
+      <c r="A83" t="s">
         <v>228</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" t="s">
-        <v>210</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>229</v>
       </c>
       <c r="B83" t="s">
         <v>59</v>
@@ -3986,36 +4148,36 @@
         <v>79</v>
       </c>
       <c r="D83" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" t="s">
+        <v>209</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1">
+      <c r="A84" t="s">
         <v>230</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>231</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
       </c>
       <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
         <v>232</v>
       </c>
-      <c r="D84" t="s">
-        <v>233</v>
-      </c>
       <c r="E84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" t="s">
         <v>209</v>
-      </c>
-      <c r="F84" t="s">
-        <v>210</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>18</v>
@@ -4023,22 +4185,22 @@
     </row>
     <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" t="s">
         <v>234</v>
       </c>
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>235</v>
       </c>
-      <c r="D85" t="s">
-        <v>236</v>
-      </c>
       <c r="E85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F85" t="s">
         <v>209</v>
-      </c>
-      <c r="F85" t="s">
-        <v>210</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>18</v>
@@ -4046,22 +4208,22 @@
     </row>
     <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
         <v>237</v>
       </c>
-      <c r="B86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>238</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" t="s">
         <v>239</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F86" t="s">
-        <v>240</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>18</v>
@@ -4069,22 +4231,22 @@
     </row>
     <row r="87" spans="1:7" hidden="1">
       <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
         <v>241</v>
-      </c>
-      <c r="B87" t="s">
-        <v>242</v>
       </c>
       <c r="C87" t="s">
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>18</v>
@@ -4092,22 +4254,22 @@
     </row>
     <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" t="s">
         <v>244</v>
       </c>
-      <c r="B88" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>245</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" t="s">
         <v>246</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F88" t="s">
-        <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>18</v>
@@ -4115,76 +4277,76 @@
     </row>
     <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" t="s">
         <v>249</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" t="s">
+        <v>209</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1">
+      <c r="A90" t="s">
         <v>250</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F89" t="s">
-        <v>210</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>251</v>
       </c>
       <c r="B90" t="s">
         <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" t="s">
+        <v>209</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1">
+      <c r="A91" t="s">
         <v>252</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F90" t="s">
-        <v>210</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>253</v>
       </c>
       <c r="B91" t="s">
         <v>59</v>
       </c>
       <c r="C91" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" t="s">
         <v>254</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F91" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
+      <c r="A92" t="s">
         <v>255</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F91" t="s">
-        <v>210</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>256</v>
       </c>
       <c r="B92" t="s">
         <v>59</v>
@@ -4193,21 +4355,21 @@
         <v>91</v>
       </c>
       <c r="D92" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
+      <c r="A93" t="s">
         <v>257</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F92" t="s">
-        <v>210</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>258</v>
       </c>
       <c r="B93" t="s">
         <v>59</v>
@@ -4216,13 +4378,13 @@
         <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" t="s">
         <v>209</v>
-      </c>
-      <c r="F93" t="s">
-        <v>210</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>18</v>
@@ -4230,22 +4392,22 @@
     </row>
     <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
         <v>260</v>
       </c>
-      <c r="B94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>261</v>
       </c>
-      <c r="D94" t="s">
-        <v>262</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>18</v>
@@ -4253,22 +4415,22 @@
     </row>
     <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
         <v>263</v>
       </c>
-      <c r="B95" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>264</v>
       </c>
-      <c r="D95" t="s">
-        <v>265</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>18</v>
@@ -4276,22 +4438,22 @@
     </row>
     <row r="96" spans="1:7" hidden="1">
       <c r="A96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" t="s">
         <v>266</v>
       </c>
-      <c r="B96" t="s">
-        <v>242</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>267</v>
       </c>
-      <c r="D96" t="s">
-        <v>268</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>18</v>
@@ -4299,16 +4461,16 @@
     </row>
     <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -4316,21 +4478,21 @@
         <v>18</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="9"/>
@@ -4338,21 +4500,21 @@
         <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9"/>
@@ -4360,21 +4522,21 @@
         <v>18</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9"/>
@@ -4382,21 +4544,21 @@
         <v>18</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -4404,21 +4566,21 @@
         <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -4426,21 +4588,21 @@
         <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="11"/>
@@ -4448,21 +4610,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9"/>
@@ -4470,21 +4632,21 @@
         <v>18</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -4492,21 +4654,21 @@
         <v>18</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -4514,21 +4676,21 @@
         <v>18</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -4536,21 +4698,21 @@
         <v>18</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -4558,21 +4720,21 @@
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -4580,21 +4742,21 @@
         <v>18</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -4602,21 +4764,21 @@
         <v>18</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -4624,21 +4786,21 @@
         <v>18</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -4646,21 +4808,21 @@
         <v>18</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -4668,21 +4830,21 @@
         <v>18</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -4690,21 +4852,21 @@
         <v>18</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -4712,21 +4874,21 @@
         <v>18</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -4734,21 +4896,21 @@
         <v>18</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -4756,21 +4918,21 @@
         <v>18</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -4778,21 +4940,21 @@
         <v>18</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
@@ -4800,21 +4962,21 @@
         <v>18</v>
       </c>
       <c r="H119" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1">
+      <c r="A120" s="9" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="9"/>
@@ -4822,21 +4984,21 @@
         <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
-        <v>333</v>
+        <v>561</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>59</v>
+        <v>559</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -4844,21 +5006,21 @@
         <v>18</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
-        <v>336</v>
+        <v>560</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>59</v>
+        <v>559</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -4866,21 +5028,21 @@
         <v>18</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C123" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
@@ -4888,21 +5050,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -4910,21 +5072,21 @@
         <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="9"/>
@@ -4932,21 +5094,21 @@
         <v>18</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
@@ -4954,21 +5116,21 @@
         <v>18</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="11"/>
@@ -4976,21 +5138,21 @@
         <v>18</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="11"/>
@@ -4998,21 +5160,21 @@
         <v>18</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="11"/>
@@ -5020,21 +5182,21 @@
         <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="9"/>
@@ -5045,16 +5207,16 @@
     </row>
     <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9"/>
@@ -5065,16 +5227,16 @@
     </row>
     <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="9"/>
@@ -5085,16 +5247,16 @@
     </row>
     <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="9"/>
@@ -5102,21 +5264,21 @@
         <v>18</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="9"/>
@@ -5124,21 +5286,21 @@
         <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="9"/>
@@ -5149,16 +5311,16 @@
     </row>
     <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="9"/>
@@ -5169,16 +5331,16 @@
     </row>
     <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="9"/>
@@ -5189,16 +5351,16 @@
     </row>
     <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -5206,21 +5368,21 @@
         <v>18</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -5231,16 +5393,16 @@
     </row>
     <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="9"/>
@@ -5251,16 +5413,16 @@
     </row>
     <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D141" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="11"/>
@@ -5268,21 +5430,21 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="11"/>
@@ -5290,21 +5452,21 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="11"/>
@@ -5312,21 +5474,21 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
@@ -5334,21 +5496,21 @@
         <v>18</v>
       </c>
       <c r="H144" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1">
-      <c r="A145" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="6"/>
@@ -5356,21 +5518,21 @@
         <v>18</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
@@ -5378,21 +5540,21 @@
         <v>18</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
@@ -5400,21 +5562,21 @@
         <v>18</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
@@ -5422,21 +5584,21 @@
         <v>18</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
@@ -5444,21 +5606,21 @@
         <v>18</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
@@ -5466,21 +5628,21 @@
         <v>18</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
@@ -5488,21 +5650,21 @@
         <v>18</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
@@ -5510,21 +5672,21 @@
         <v>18</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="6" t="s">
-        <v>433</v>
+        <v>540</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
@@ -5532,21 +5694,21 @@
         <v>18</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
@@ -5554,21 +5716,21 @@
         <v>18</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="6" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
@@ -5576,21 +5738,21 @@
         <v>18</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
@@ -5598,21 +5760,21 @@
         <v>18</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -5620,21 +5782,21 @@
         <v>18</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
@@ -5642,21 +5804,21 @@
         <v>18</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9"/>
@@ -5664,21 +5826,21 @@
         <v>18</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="11"/>
@@ -5686,21 +5848,21 @@
         <v>18</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="11"/>
@@ -5708,21 +5870,21 @@
         <v>18</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9"/>
@@ -5730,21 +5892,21 @@
         <v>18</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9"/>
@@ -5752,21 +5914,21 @@
         <v>18</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -5774,21 +5936,21 @@
         <v>18</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -5796,21 +5958,21 @@
         <v>18</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
@@ -5818,21 +5980,21 @@
         <v>18</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -5840,21 +6002,21 @@
         <v>18</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -5862,21 +6024,21 @@
         <v>18</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="11"/>
@@ -5884,21 +6046,21 @@
         <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="11"/>
@@ -5906,21 +6068,21 @@
         <v>18</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="9"/>
@@ -5928,21 +6090,21 @@
         <v>18</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="9"/>
@@ -5950,36 +6112,36 @@
         <v>18</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
       <c r="A173" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
         <v>70</v>
       </c>
       <c r="D173" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="9"/>
@@ -5987,21 +6149,21 @@
         <v>18</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="9"/>
@@ -6009,21 +6171,21 @@
         <v>18</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="9"/>
@@ -6031,41 +6193,41 @@
         <v>18</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C177" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D177" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="16"/>
@@ -6073,19 +6235,19 @@
     </row>
     <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="16"/>
@@ -6093,19 +6255,19 @@
     </row>
     <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="16"/>
@@ -6113,16 +6275,16 @@
     </row>
     <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
@@ -6131,16 +6293,16 @@
     </row>
     <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="15"/>
@@ -6149,34 +6311,34 @@
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="15"/>
       <c r="G183" s="16"/>
       <c r="H183" s="15"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
@@ -6185,16 +6347,16 @@
     </row>
     <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="15"/>
@@ -6224,24 +6386,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:A6"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
     <col min="3" max="3" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="82.5" customHeight="1"/>
-    <row r="5" ht="102" customHeight="1"/>
-    <row r="6" ht="36" customHeight="1"/>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27">
+      <c r="A10" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>552</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$186</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="567">
   <si>
     <t>文件名</t>
   </si>
@@ -195,9 +195,6 @@
     <t>cd标记发货</t>
   </si>
   <si>
-    <t>orders_setting.php action=auto_mark_orders</t>
-  </si>
-  <si>
     <t>ebay</t>
   </si>
   <si>
@@ -588,9 +585,6 @@
     <t>速卖通自动刷新token</t>
   </si>
   <si>
-    <t>orders_setting.php action=auto_orders_export_service</t>
-  </si>
-  <si>
     <t>每4分钟</t>
   </si>
   <si>
@@ -1309,9 +1303,6 @@
   </si>
   <si>
     <t>头程发货，少发商品SKU</t>
-  </si>
-  <si>
-    <t>早上7点05分</t>
   </si>
   <si>
     <t>海外仓过去120天新开发SKU销量邮件推送</t>
@@ -1772,6 +1763,34 @@
   </si>
   <si>
     <t>AutoMarkProductsWithNoReplenishment.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders_setting.php action=auto_mark_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders_setting.php action=auto_orders_export_service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_upload_jhd.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京华达API对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时的第40分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早上7点05分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 7,15,19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1993,8 +2012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H185" totalsRowShown="0">
-  <autoFilter ref="A1:H185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H186" totalsRowShown="0">
+  <autoFilter ref="A1:H186">
     <filterColumn colId="1">
       <filters>
         <filter val="海外仓"/>
@@ -2303,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2372,13 +2391,13 @@
     </row>
     <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2395,7 +2414,7 @@
     </row>
     <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2418,7 +2437,7 @@
     </row>
     <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2441,7 +2460,7 @@
     </row>
     <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2464,13 +2483,13 @@
     </row>
     <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1">
@@ -2728,7 +2747,7 @@
     </row>
     <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2751,16 +2770,16 @@
     </row>
     <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2774,16 +2793,16 @@
     </row>
     <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2797,16 +2816,16 @@
     </row>
     <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2820,16 +2839,16 @@
     </row>
     <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2843,16 +2862,16 @@
     </row>
     <row r="24" spans="1:7" hidden="1">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2866,16 +2885,16 @@
     </row>
     <row r="25" spans="1:7" hidden="1">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2889,16 +2908,16 @@
     </row>
     <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2912,16 +2931,16 @@
     </row>
     <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -2935,16 +2954,16 @@
     </row>
     <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -2958,16 +2977,16 @@
     </row>
     <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -2981,16 +3000,16 @@
     </row>
     <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -3004,16 +3023,16 @@
     </row>
     <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -3027,22 +3046,22 @@
     </row>
     <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>18</v>
@@ -3050,22 +3069,22 @@
     </row>
     <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
@@ -3073,22 +3092,22 @@
     </row>
     <row r="34" spans="1:7" hidden="1">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>18</v>
@@ -3096,22 +3115,22 @@
     </row>
     <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>18</v>
@@ -3119,22 +3138,22 @@
     </row>
     <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>106</v>
       </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>18</v>
@@ -3142,22 +3161,22 @@
     </row>
     <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>109</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -3165,22 +3184,22 @@
     </row>
     <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>18</v>
@@ -3188,22 +3207,22 @@
     </row>
     <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>115</v>
       </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>18</v>
@@ -3211,22 +3230,22 @@
     </row>
     <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>18</v>
@@ -3234,22 +3253,22 @@
     </row>
     <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
-      </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>18</v>
@@ -3257,16 +3276,16 @@
     </row>
     <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
         <v>120</v>
       </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>121</v>
-      </c>
-      <c r="D42" t="s">
-        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -3280,16 +3299,16 @@
     </row>
     <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>126</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -3303,16 +3322,16 @@
     </row>
     <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>128</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3326,16 +3345,16 @@
     </row>
     <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" t="s">
-        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -3349,16 +3368,16 @@
     </row>
     <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -3372,16 +3391,16 @@
     </row>
     <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
         <v>133</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -3395,16 +3414,16 @@
     </row>
     <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3418,16 +3437,16 @@
     </row>
     <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
         <v>138</v>
       </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>139</v>
-      </c>
-      <c r="D49" t="s">
-        <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -3441,16 +3460,16 @@
     </row>
     <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" t="s">
-        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3464,16 +3483,16 @@
     </row>
     <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
         <v>144</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
@@ -3487,16 +3506,16 @@
     </row>
     <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
         <v>146</v>
       </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>147</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3510,16 +3529,16 @@
     </row>
     <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>150</v>
-      </c>
-      <c r="D53" t="s">
-        <v>151</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -3530,16 +3549,16 @@
     </row>
     <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
         <v>152</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" t="s">
-        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -3550,16 +3569,16 @@
     </row>
     <row r="55" spans="1:7" hidden="1">
       <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
         <v>154</v>
-      </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>155</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -3570,16 +3589,16 @@
     </row>
     <row r="56" spans="1:7" hidden="1">
       <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
         <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" t="s">
-        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -3590,16 +3609,16 @@
     </row>
     <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="B57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>160</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -3610,16 +3629,16 @@
     </row>
     <row r="58" spans="1:7" hidden="1">
       <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
         <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
@@ -3630,16 +3649,16 @@
     </row>
     <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
         <v>163</v>
       </c>
-      <c r="B59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -3650,16 +3669,16 @@
     </row>
     <row r="60" spans="1:7" hidden="1">
       <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" t="s">
-        <v>167</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -3670,16 +3689,16 @@
     </row>
     <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
         <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" t="s">
-        <v>169</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -3690,16 +3709,16 @@
     </row>
     <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>170</v>
       </c>
-      <c r="B62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>171</v>
-      </c>
-      <c r="D62" t="s">
-        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
@@ -3710,16 +3729,16 @@
     </row>
     <row r="63" spans="1:7" hidden="1">
       <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
         <v>173</v>
-      </c>
-      <c r="B63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" t="s">
-        <v>174</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
@@ -3730,16 +3749,16 @@
     </row>
     <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
         <v>175</v>
-      </c>
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" t="s">
-        <v>176</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
@@ -3750,16 +3769,16 @@
     </row>
     <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
@@ -3770,16 +3789,16 @@
     </row>
     <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="s">
         <v>179</v>
       </c>
-      <c r="B66" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>180</v>
-      </c>
-      <c r="D66" t="s">
-        <v>181</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
@@ -3790,16 +3809,16 @@
     </row>
     <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
         <v>182</v>
-      </c>
-      <c r="B67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" t="s">
-        <v>183</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -3810,16 +3829,16 @@
     </row>
     <row r="68" spans="1:8" hidden="1">
       <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
         <v>184</v>
-      </c>
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>185</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
@@ -3830,16 +3849,16 @@
     </row>
     <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -3852,16 +3871,16 @@
     </row>
     <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>12</v>
@@ -3874,16 +3893,16 @@
     </row>
     <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>12</v>
@@ -3896,16 +3915,16 @@
     </row>
     <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -3916,16 +3935,16 @@
     </row>
     <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" t="s">
         <v>197</v>
-      </c>
-      <c r="B73" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" t="s">
-        <v>199</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -3936,16 +3955,16 @@
     </row>
     <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" t="s">
         <v>200</v>
-      </c>
-      <c r="B74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" t="s">
-        <v>202</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
@@ -3956,16 +3975,16 @@
     </row>
     <row r="75" spans="1:8" hidden="1">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -3976,22 +3995,22 @@
     </row>
     <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>207</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" t="s">
-        <v>209</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>18</v>
@@ -3999,70 +4018,70 @@
     </row>
     <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" t="s">
         <v>217</v>
       </c>
-      <c r="B79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" t="s">
-        <v>219</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>18</v>
@@ -4070,22 +4089,22 @@
     </row>
     <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="s">
         <v>220</v>
       </c>
-      <c r="B80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" t="s">
-        <v>222</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>18</v>
@@ -4093,22 +4112,22 @@
     </row>
     <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>18</v>
@@ -4116,22 +4135,22 @@
     </row>
     <row r="82" spans="1:7" hidden="1">
       <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" t="s">
         <v>225</v>
       </c>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" t="s">
-        <v>227</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>18</v>
@@ -4139,22 +4158,22 @@
     </row>
     <row r="83" spans="1:7" hidden="1">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>18</v>
@@ -4162,22 +4181,22 @@
     </row>
     <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
         <v>230</v>
       </c>
-      <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" t="s">
-        <v>232</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>18</v>
@@ -4185,22 +4204,22 @@
     </row>
     <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" t="s">
         <v>233</v>
       </c>
-      <c r="B85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" t="s">
-        <v>235</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>18</v>
@@ -4208,22 +4227,22 @@
     </row>
     <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
         <v>236</v>
       </c>
-      <c r="B86" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>237</v>
-      </c>
-      <c r="D86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F86" t="s">
-        <v>239</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>18</v>
@@ -4231,22 +4250,22 @@
     </row>
     <row r="87" spans="1:7" hidden="1">
       <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" t="s">
         <v>240</v>
       </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>242</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>18</v>
@@ -4254,22 +4273,22 @@
     </row>
     <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" t="s">
         <v>243</v>
       </c>
-      <c r="B88" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>244</v>
-      </c>
-      <c r="D88" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" t="s">
-        <v>246</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>18</v>
@@ -4277,22 +4296,22 @@
     </row>
     <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>18</v>
@@ -4300,22 +4319,22 @@
     </row>
     <row r="90" spans="1:7" hidden="1">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>18</v>
@@ -4323,22 +4342,22 @@
     </row>
     <row r="91" spans="1:7" hidden="1">
       <c r="A91" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" t="s">
         <v>252</v>
       </c>
-      <c r="B91" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" t="s">
-        <v>253</v>
-      </c>
-      <c r="D91" t="s">
-        <v>254</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>18</v>
@@ -4346,22 +4365,22 @@
     </row>
     <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>18</v>
@@ -4369,22 +4388,22 @@
     </row>
     <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>18</v>
@@ -4392,22 +4411,22 @@
     </row>
     <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94" t="s">
         <v>259</v>
       </c>
-      <c r="B94" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" t="s">
-        <v>261</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>18</v>
@@ -4415,22 +4434,22 @@
     </row>
     <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" t="s">
         <v>262</v>
       </c>
-      <c r="B95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" t="s">
-        <v>264</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>18</v>
@@ -4438,22 +4457,22 @@
     </row>
     <row r="96" spans="1:7" hidden="1">
       <c r="A96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" t="s">
         <v>265</v>
       </c>
-      <c r="B96" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" t="s">
-        <v>266</v>
-      </c>
-      <c r="D96" t="s">
-        <v>267</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>18</v>
@@ -4461,16 +4480,16 @@
     </row>
     <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -4478,21 +4497,21 @@
         <v>18</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="9"/>
@@ -4500,21 +4519,21 @@
         <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9"/>
@@ -4522,21 +4541,21 @@
         <v>18</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9"/>
@@ -4544,21 +4563,21 @@
         <v>18</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -4566,21 +4585,21 @@
         <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -4588,21 +4607,21 @@
         <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="11"/>
@@ -4610,21 +4629,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9"/>
@@ -4632,21 +4651,21 @@
         <v>18</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -4654,21 +4673,21 @@
         <v>18</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -4676,21 +4695,21 @@
         <v>18</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -4698,21 +4717,21 @@
         <v>18</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -4720,21 +4739,21 @@
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -4742,21 +4761,21 @@
         <v>18</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -4764,21 +4783,21 @@
         <v>18</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -4786,21 +4805,21 @@
         <v>18</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -4808,21 +4827,21 @@
         <v>18</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -4830,21 +4849,21 @@
         <v>18</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -4852,21 +4871,21 @@
         <v>18</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -4874,21 +4893,21 @@
         <v>18</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -4896,21 +4915,21 @@
         <v>18</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -4918,21 +4937,21 @@
         <v>18</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -4940,21 +4959,21 @@
         <v>18</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
@@ -4962,21 +4981,21 @@
         <v>18</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="9"/>
@@ -4984,21 +5003,21 @@
         <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -5006,21 +5025,21 @@
         <v>18</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>334</v>
+        <v>566</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -5028,21 +5047,21 @@
         <v>18</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
@@ -5050,21 +5069,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -5072,21 +5091,21 @@
         <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>344</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="9"/>
@@ -5094,21 +5113,21 @@
         <v>18</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
@@ -5116,21 +5135,21 @@
         <v>18</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="11"/>
@@ -5138,21 +5157,21 @@
         <v>18</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="11"/>
@@ -5160,21 +5179,21 @@
         <v>18</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="11"/>
@@ -5182,21 +5201,21 @@
         <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="9"/>
@@ -5207,16 +5226,16 @@
     </row>
     <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9"/>
@@ -5227,16 +5246,16 @@
     </row>
     <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="9"/>
@@ -5247,16 +5266,16 @@
     </row>
     <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="9"/>
@@ -5264,21 +5283,21 @@
         <v>18</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="9"/>
@@ -5286,21 +5305,21 @@
         <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="9"/>
@@ -5311,16 +5330,16 @@
     </row>
     <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="9"/>
@@ -5331,16 +5350,16 @@
     </row>
     <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="9"/>
@@ -5351,16 +5370,16 @@
     </row>
     <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D138" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -5368,21 +5387,21 @@
         <v>18</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -5393,16 +5412,16 @@
     </row>
     <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="9"/>
@@ -5413,16 +5432,16 @@
     </row>
     <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="11"/>
@@ -5430,21 +5449,21 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D142" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="11"/>
@@ -5452,21 +5471,21 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>402</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="11"/>
@@ -5474,21 +5493,21 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="D144" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
@@ -5496,21 +5515,21 @@
         <v>18</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="6"/>
@@ -5518,21 +5537,21 @@
         <v>18</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
@@ -5540,21 +5559,21 @@
         <v>18</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
@@ -5562,21 +5581,21 @@
         <v>18</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
@@ -5584,21 +5603,21 @@
         <v>18</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
@@ -5606,21 +5625,21 @@
         <v>18</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
@@ -5628,21 +5647,21 @@
         <v>18</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
@@ -5650,21 +5669,21 @@
         <v>18</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
@@ -5672,21 +5691,21 @@
         <v>18</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
@@ -5694,21 +5713,21 @@
         <v>18</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
@@ -5716,21 +5735,21 @@
         <v>18</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
@@ -5738,21 +5757,21 @@
         <v>18</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
@@ -5760,21 +5779,21 @@
         <v>18</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -5782,21 +5801,21 @@
         <v>18</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
@@ -5804,21 +5823,21 @@
         <v>18</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:8" hidden="1">
       <c r="A159" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9"/>
@@ -5826,21 +5845,21 @@
         <v>18</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1">
       <c r="A160" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="11"/>
@@ -5848,21 +5867,21 @@
         <v>18</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:8" hidden="1">
       <c r="A161" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="11"/>
@@ -5870,21 +5889,21 @@
         <v>18</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9"/>
@@ -5892,21 +5911,21 @@
         <v>18</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9"/>
@@ -5914,21 +5933,21 @@
         <v>18</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:8" hidden="1">
       <c r="A164" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -5936,21 +5955,21 @@
         <v>18</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -5958,21 +5977,21 @@
         <v>18</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:8" hidden="1">
       <c r="A166" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
@@ -5980,21 +5999,21 @@
         <v>18</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -6002,21 +6021,21 @@
         <v>18</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -6024,21 +6043,21 @@
         <v>18</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="11"/>
@@ -6046,21 +6065,21 @@
         <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="11"/>
@@ -6068,21 +6087,21 @@
         <v>18</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="9"/>
@@ -6090,21 +6109,21 @@
         <v>18</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="9"/>
@@ -6112,36 +6131,36 @@
         <v>18</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1">
       <c r="A173" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B173" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C173" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D173" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="9"/>
@@ -6149,21 +6168,21 @@
         <v>18</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="9"/>
@@ -6171,21 +6190,21 @@
         <v>18</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="9"/>
@@ -6193,41 +6212,41 @@
         <v>18</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
+        <v>493</v>
+      </c>
+      <c r="B177" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" t="s">
+        <v>494</v>
+      </c>
+      <c r="D177" t="s">
+        <v>495</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B177" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" t="s">
-        <v>497</v>
-      </c>
-      <c r="D177" t="s">
-        <v>498</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="16"/>
@@ -6235,19 +6254,19 @@
     </row>
     <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="16"/>
@@ -6255,19 +6274,19 @@
     </row>
     <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="16"/>
@@ -6275,16 +6294,16 @@
     </row>
     <row r="181" spans="1:8" hidden="1">
       <c r="A181" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
@@ -6293,16 +6312,16 @@
     </row>
     <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="15"/>
@@ -6311,16 +6330,16 @@
     </row>
     <row r="183" spans="1:8" hidden="1">
       <c r="A183" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="15"/>
@@ -6329,16 +6348,16 @@
     </row>
     <row r="184" spans="1:8" hidden="1">
       <c r="A184" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>528</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>531</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
@@ -6347,32 +6366,50 @@
     </row>
     <row r="185" spans="1:8" hidden="1">
       <c r="A185" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D185" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="15"/>
       <c r="G185" s="16"/>
       <c r="H185" s="15"/>
     </row>
+    <row r="186" spans="1:8" hidden="1">
+      <c r="A186" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B186" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E186" s="16"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E186">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F186">
       <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G186">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6389,7 +6426,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -6402,7 +6439,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B2" s="22"/>
     </row>
@@ -6412,68 +6449,68 @@
     </row>
     <row r="4" spans="1:2" ht="18.75">
       <c r="A4" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27">
       <c r="A10" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="575">
   <si>
     <t>文件名</t>
   </si>
@@ -804,9 +804,6 @@
     <t>procurement_no_delivered.php</t>
   </si>
   <si>
-    <t>早上5点15分</t>
-  </si>
-  <si>
     <t>下单7天未到货采购单</t>
   </si>
   <si>
@@ -882,9 +879,6 @@
     <t>早上5点</t>
   </si>
   <si>
-    <t>月销售额统计</t>
-  </si>
-  <si>
     <t>autoSetSmtCancelOrdersStatus.php</t>
   </si>
   <si>
@@ -1002,12 +996,6 @@
     <t>procurement_special_management.php</t>
   </si>
   <si>
-    <t>早上1点跑一次</t>
-  </si>
-  <si>
-    <t>特采积压sku邮件通知</t>
-  </si>
-  <si>
     <t>v3里面没有特采的逻辑</t>
   </si>
   <si>
@@ -1020,9 +1008,6 @@
     <t>每18分钟</t>
   </si>
   <si>
-    <t>海外sku下架</t>
-  </si>
-  <si>
     <t>autoSendMessageRun.php</t>
   </si>
   <si>
@@ -1107,15 +1092,9 @@
     <t>每天6:15分</t>
   </si>
   <si>
-    <t>自动【待售】且【有库存】的SKU发个邮件提醒给采购</t>
-  </si>
-  <si>
     <t>autoSkuSalesIncreased.php</t>
   </si>
   <si>
-    <t>每天6:20分</t>
-  </si>
-  <si>
     <t>销量猛增SKU报警</t>
   </si>
   <si>
@@ -1125,12 +1104,6 @@
     <t>autoSkuStorageUnrealZero.php</t>
   </si>
   <si>
-    <t>每天6:25分</t>
-  </si>
-  <si>
-    <t>虚库存小于等于0的  卖完下架状态的sku 邮件提醒给采购</t>
-  </si>
-  <si>
     <t>现在没有虚库存的概念，只有卖完下架还缺货的。</t>
   </si>
   <si>
@@ -1143,21 +1116,9 @@
     <t>停产且实库存大于0的SKU发送邮件</t>
   </si>
   <si>
-    <t>autoSendNewProductSales.php</t>
-  </si>
-  <si>
-    <t>每天6:50分</t>
-  </si>
-  <si>
-    <t>过去一个月新开发的SKU，7天，14天，30天的销量进行邮件推送</t>
-  </si>
-  <si>
     <t>autoSendSkuArrivalMail.php</t>
   </si>
   <si>
-    <t>每天晚上11点18分</t>
-  </si>
-  <si>
     <t>特采到货、积压sku发送邮件提醒</t>
   </si>
   <si>
@@ -1173,9 +1134,6 @@
     <t>具体功能是什么</t>
   </si>
   <si>
-    <t>procurement_count.php</t>
-  </si>
-  <si>
     <t>早上1，5点</t>
   </si>
   <si>
@@ -1185,12 +1143,6 @@
     <t>getSkuMonthCostdown.php</t>
   </si>
   <si>
-    <t>13点15分</t>
-  </si>
-  <si>
-    <t>统计在售sku的历史成本</t>
-  </si>
-  <si>
     <t>admin/auto/auto_pick_count today_num</t>
   </si>
   <si>
@@ -1299,21 +1251,12 @@
     <t>计算sku利润率</t>
   </si>
   <si>
-    <t>CheckAllocation.php</t>
-  </si>
-  <si>
     <t>头程发货，少发商品SKU</t>
   </si>
   <si>
     <t>海外仓过去120天新开发SKU销量邮件推送</t>
   </si>
   <si>
-    <t>AutoSendMailSkuUnchecked.php</t>
-  </si>
-  <si>
-    <t>早上6点30分</t>
-  </si>
-  <si>
     <t>到货3天未质检sku邮件推送</t>
   </si>
   <si>
@@ -1335,15 +1278,6 @@
     <t>获取fba订单的跟踪号到erp系统</t>
   </si>
   <si>
-    <t>AutoSendMailWithFBA.php</t>
-  </si>
-  <si>
-    <t>早上9点</t>
-  </si>
-  <si>
-    <t>Fba仓库sku信息统计发送email</t>
-  </si>
-  <si>
     <t>update_order_status.php</t>
   </si>
   <si>
@@ -1497,9 +1431,6 @@
     <t>早上6点10分</t>
   </si>
   <si>
-    <t>已打印状态的订单拆单产生的子订单未打印的订单SKU的SKU和实库存和虚库存发邮件</t>
-  </si>
-  <si>
     <t>autoSellertoolDataReady.script.php</t>
   </si>
   <si>
@@ -1620,10 +1551,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已打印入库单超过2天，采购单还未完成的发送邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_ebay_replenishment.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1669,10 +1596,6 @@
   </si>
   <si>
     <t>amazon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoSendMailWithSales.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1786,12 +1709,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>18 7,15,19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procurement_count.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fba仓库sku信息统计发送email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去一个月新开发的SKU，7天，14天，30天的销量进行邮件推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已打印入库单超过2天，采购单还未完成的发送邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已打印状态的订单拆单产生的子订单未打印的订单SKU的SKU和实库存和虚库存发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外sku下架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动【待售】且【有库存】的SKU发个邮件提醒给采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天6:20分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚库存小于等于0的  卖完下架状态的sku 邮件提醒给采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天6:25分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计在售sku的历史成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13点15分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上5点15分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特采积压sku邮件通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上1点跑一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_message_blacklistinfo.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单订单邮件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上6点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月销售额统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上6点30分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上9点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSendMailWithFBA.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSendMailSkuUnchecked.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>每天早上7点05分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>18 7,15,19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>AutoSendMailWithSales.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckAllocation.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上6点15分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天6:50分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendNewProductSales.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天晚上11点18分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停产状态且实库存大于0的SKU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早上6点40</t>
   </si>
 </sst>
 </file>
@@ -2012,13 +2066,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H186" totalsRowShown="0">
-  <autoFilter ref="A1:H186">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="海外仓"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H188" totalsRowShown="0">
+  <autoFilter ref="A1:H188">
+    <filterColumn colId="1"/>
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="8">
@@ -2322,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2366,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2389,15 +2439,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2412,9 +2462,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2435,9 +2485,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2458,9 +2508,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2481,18 +2531,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2515,7 +2565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2538,7 +2588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2561,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2584,7 +2634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2607,7 +2657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2630,7 +2680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2676,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2699,7 +2749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2722,7 +2772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2745,9 +2795,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2768,9 +2818,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -2791,9 +2841,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -2814,7 +2864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2837,9 +2887,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -2860,7 +2910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -2883,7 +2933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2906,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2929,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2952,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2975,7 +3025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2998,7 +3048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -3021,7 +3071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -3044,7 +3094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -3067,7 +3117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -3090,7 +3140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -3113,7 +3163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -3136,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -3159,9 +3209,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
@@ -3182,7 +3232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -3205,7 +3255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -3228,7 +3278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3274,7 +3324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -3297,7 +3347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -3320,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -3343,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -3366,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -3389,7 +3439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -3412,7 +3462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -3435,7 +3485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -3458,7 +3508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3481,7 +3531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -3504,7 +3554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -3527,9 +3577,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s">
         <v>148</v>
@@ -3547,7 +3597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -3567,7 +3617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -3587,7 +3637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -3607,7 +3657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -3627,7 +3677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -3647,7 +3697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -3687,7 +3737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -3707,7 +3757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>169</v>
       </c>
@@ -3727,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -3747,7 +3797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>174</v>
       </c>
@@ -3767,7 +3817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -3787,7 +3837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -3807,7 +3857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>181</v>
       </c>
@@ -3827,7 +3877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -3847,7 +3897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>185</v>
       </c>
@@ -3869,9 +3919,9 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>58</v>
@@ -3891,9 +3941,9 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>190</v>
@@ -3913,7 +3963,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -3933,7 +3983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -3953,7 +4003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -3973,7 +4023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -3993,7 +4043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -4016,7 +4066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
         <v>208</v>
       </c>
@@ -4040,7 +4090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
         <v>213</v>
       </c>
@@ -4064,7 +4114,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -4087,7 +4137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -4110,7 +4160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -4133,7 +4183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -4156,7 +4206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>226</v>
       </c>
@@ -4179,7 +4229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>228</v>
       </c>
@@ -4202,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>231</v>
       </c>
@@ -4225,7 +4275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
         <v>234</v>
       </c>
@@ -4248,7 +4298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -4271,7 +4321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -4294,7 +4344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>245</v>
       </c>
@@ -4317,7 +4367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -4340,7 +4390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -4363,7 +4413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -4386,7 +4436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>255</v>
       </c>
@@ -4409,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>257</v>
       </c>
@@ -4432,7 +4482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -4440,10 +4490,10 @@
         <v>190</v>
       </c>
       <c r="C95" t="s">
+        <v>553</v>
+      </c>
+      <c r="D95" t="s">
         <v>261</v>
-      </c>
-      <c r="D95" t="s">
-        <v>262</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>206</v>
@@ -4455,18 +4505,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B96" t="s">
         <v>239</v>
       </c>
       <c r="C96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" t="s">
         <v>264</v>
-      </c>
-      <c r="D96" t="s">
-        <v>265</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>206</v>
@@ -4478,18 +4528,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -4500,18 +4550,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="9"/>
@@ -4519,12 +4569,12 @@
         <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="9" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1">
-      <c r="A99" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>9</v>
@@ -4533,7 +4583,7 @@
         <v>120</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9"/>
@@ -4541,21 +4591,21 @@
         <v>18</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9"/>
@@ -4563,21 +4613,21 @@
         <v>18</v>
       </c>
       <c r="H100" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="11" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1">
-      <c r="A101" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -4585,21 +4635,21 @@
         <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="11" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1">
-      <c r="A102" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -4607,21 +4657,21 @@
         <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>287</v>
+        <v>560</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="11"/>
@@ -4629,21 +4679,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9"/>
@@ -4651,21 +4701,21 @@
         <v>18</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -4676,18 +4726,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -4698,9 +4748,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>209</v>
@@ -4709,7 +4759,7 @@
         <v>90</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -4720,18 +4770,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -4742,18 +4792,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -4764,18 +4814,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -4786,18 +4836,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -4808,18 +4858,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -4830,9 +4880,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>209</v>
@@ -4841,7 +4891,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -4852,9 +4902,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>209</v>
@@ -4863,7 +4913,7 @@
         <v>219</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -4874,9 +4924,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>209</v>
@@ -4885,7 +4935,7 @@
         <v>69</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -4896,9 +4946,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>209</v>
@@ -4907,7 +4957,7 @@
         <v>69</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -4918,9 +4968,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>209</v>
@@ -4929,7 +4979,7 @@
         <v>78</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -4940,9 +4990,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>209</v>
@@ -4951,7 +5001,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -4962,18 +5012,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
@@ -4981,21 +5031,21 @@
         <v>18</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>327</v>
+        <v>555</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>328</v>
+        <v>554</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="9"/>
@@ -5003,21 +5053,21 @@
         <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -5025,21 +5075,21 @@
         <v>18</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>333</v>
+        <v>546</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -5047,21 +5097,21 @@
         <v>18</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
@@ -5069,21 +5119,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -5091,21 +5141,21 @@
         <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1">
-      <c r="A125" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="D125" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="9"/>
@@ -5113,12 +5163,12 @@
         <v>18</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>123</v>
@@ -5127,7 +5177,7 @@
         <v>114</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
@@ -5135,12 +5185,12 @@
         <v>18</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>123</v>
@@ -5149,7 +5199,7 @@
         <v>111</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="11"/>
@@ -5157,12 +5207,12 @@
         <v>18</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>123</v>
@@ -5171,7 +5221,7 @@
         <v>78</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="11"/>
@@ -5179,21 +5229,21 @@
         <v>18</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="11"/>
@@ -5201,21 +5251,21 @@
         <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="9"/>
@@ -5224,18 +5274,18 @@
       </c>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9"/>
@@ -5244,18 +5294,18 @@
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>362</v>
+        <v>547</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="9"/>
@@ -5264,18 +5314,18 @@
       </c>
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>364</v>
+        <v>548</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="9"/>
@@ -5283,21 +5333,21 @@
         <v>18</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>368</v>
+        <v>550</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>369</v>
+        <v>549</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="9"/>
@@ -5305,21 +5355,21 @@
         <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="9" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="9"/>
@@ -5328,18 +5378,18 @@
       </c>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="9" t="s">
-        <v>374</v>
+        <v>570</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>375</v>
+        <v>569</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>376</v>
+        <v>543</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="9"/>
@@ -5348,18 +5398,18 @@
       </c>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>378</v>
+        <v>571</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="9"/>
@@ -5368,18 +5418,18 @@
       </c>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -5387,21 +5437,21 @@
         <v>18</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="9" t="s">
-        <v>384</v>
+        <v>541</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -5410,18 +5460,18 @@
       </c>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="9" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="9"/>
@@ -5430,18 +5480,18 @@
       </c>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="11" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="11"/>
@@ -5449,21 +5499,21 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="13" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="11"/>
@@ -5471,21 +5521,21 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="11" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="11"/>
@@ -5493,21 +5543,21 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
@@ -5515,21 +5565,21 @@
         <v>18</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="6"/>
@@ -5537,21 +5587,21 @@
         <v>18</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
@@ -5559,21 +5609,21 @@
         <v>18</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
@@ -5581,21 +5631,21 @@
         <v>18</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
@@ -5603,21 +5653,21 @@
         <v>18</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
@@ -5625,21 +5675,21 @@
         <v>18</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
@@ -5647,21 +5697,21 @@
         <v>18</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
@@ -5669,21 +5719,21 @@
         <v>18</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6" t="s">
-        <v>426</v>
+        <v>567</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>407</v>
+        <v>568</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
@@ -5691,21 +5741,21 @@
         <v>18</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="6" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>565</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
@@ -5713,21 +5763,21 @@
         <v>18</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6" t="s">
-        <v>429</v>
+        <v>564</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
@@ -5735,21 +5785,21 @@
         <v>18</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="6" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
@@ -5757,21 +5807,21 @@
         <v>18</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
@@ -5779,21 +5829,21 @@
         <v>18</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="6" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>216</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -5801,21 +5851,21 @@
         <v>18</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>440</v>
+        <v>542</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
@@ -5823,21 +5873,21 @@
         <v>18</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="9" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9"/>
@@ -5845,21 +5895,21 @@
         <v>18</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="11" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="11"/>
@@ -5867,12 +5917,12 @@
         <v>18</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="11" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>239</v>
@@ -5881,7 +5931,7 @@
         <v>90</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="11"/>
@@ -5889,21 +5939,21 @@
         <v>18</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="9" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9"/>
@@ -5911,21 +5961,21 @@
         <v>18</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="9" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9"/>
@@ -5933,21 +5983,21 @@
         <v>18</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="11" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -5955,21 +6005,21 @@
         <v>18</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="9" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -5977,21 +6027,21 @@
         <v>18</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="9" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
@@ -5999,21 +6049,21 @@
         <v>18</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="9" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -6021,12 +6071,12 @@
         <v>18</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="11" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>239</v>
@@ -6035,7 +6085,7 @@
         <v>90</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -6043,12 +6093,12 @@
         <v>18</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="11" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>239</v>
@@ -6057,7 +6107,7 @@
         <v>90</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="11"/>
@@ -6065,12 +6115,12 @@
         <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="11" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>239</v>
@@ -6079,7 +6129,7 @@
         <v>66</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="11"/>
@@ -6087,21 +6137,21 @@
         <v>18</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="9" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="9"/>
@@ -6109,12 +6159,12 @@
         <v>18</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="9" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>239</v>
@@ -6123,7 +6173,7 @@
         <v>78</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="9"/>
@@ -6131,12 +6181,12 @@
         <v>18</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B173" t="s">
         <v>239</v>
@@ -6145,22 +6195,22 @@
         <v>69</v>
       </c>
       <c r="D173" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="9" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="9"/>
@@ -6168,21 +6218,21 @@
         <v>18</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="9" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="9"/>
@@ -6190,21 +6240,21 @@
         <v>18</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="9" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>239</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="9"/>
@@ -6212,38 +6262,38 @@
         <v>18</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B177" t="s">
         <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D177" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="15" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>206</v>
@@ -6252,18 +6302,18 @@
       <c r="G178" s="16"/>
       <c r="H178" s="15"/>
     </row>
-    <row r="179" spans="1:8" hidden="1">
+    <row r="179" spans="1:8">
       <c r="A179" s="15" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>206</v>
@@ -6272,18 +6322,18 @@
       <c r="G179" s="16"/>
       <c r="H179" s="15"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="15" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>206</v>
@@ -6292,124 +6342,160 @@
       <c r="G180" s="16"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" spans="1:8" hidden="1">
+    <row r="181" spans="1:8">
       <c r="A181" s="15" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
       <c r="G181" s="16"/>
       <c r="H181" s="15"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="15" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="15"/>
       <c r="G182" s="16"/>
       <c r="H182" s="15"/>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8">
       <c r="A183" s="15" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>190</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="15"/>
       <c r="G183" s="16"/>
       <c r="H183" s="15"/>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184" s="15" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
       <c r="G184" s="16"/>
       <c r="H184" s="15"/>
     </row>
-    <row r="185" spans="1:8" hidden="1">
+    <row r="185" spans="1:8">
       <c r="A185" s="15" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="15"/>
       <c r="G185" s="16"/>
       <c r="H185" s="15"/>
     </row>
-    <row r="186" spans="1:8" hidden="1">
+    <row r="186" spans="1:8">
       <c r="A186" s="15" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B186" t="s">
         <v>148</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E186" s="16"/>
       <c r="F186" s="15"/>
       <c r="G186" s="16"/>
       <c r="H186" s="15"/>
     </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D187" t="s">
+        <v>558</v>
+      </c>
+      <c r="E187" s="16"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E188" s="16"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E188">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F188">
       <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G188">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6439,7 +6525,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="B2" s="22"/>
     </row>
@@ -6449,68 +6535,68 @@
     </row>
     <row r="4" spans="1:2" ht="18.75">
       <c r="A4" s="19" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27">
       <c r="A10" s="21" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$D$189</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="579">
   <si>
     <t>文件名</t>
   </si>
@@ -198,9 +198,6 @@
     <t>ebay</t>
   </si>
   <si>
-    <t>每11分钟</t>
-  </si>
-  <si>
     <t>ebay标记发货</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
     <t>获取lazada在线listing</t>
   </si>
   <si>
-    <t>admin/auto/auto_wish_get_tokens/auto_refresh_access_token</t>
-  </si>
-  <si>
     <t>每7个小时第4分钟</t>
   </si>
   <si>
@@ -1005,9 +999,6 @@
     <t>海外仓暂未开发</t>
   </si>
   <si>
-    <t>每18分钟</t>
-  </si>
-  <si>
     <t>autoSendMessageRun.php</t>
   </si>
   <si>
@@ -1020,16 +1011,10 @@
     <t>autoSendMessageRun.php type=save_order</t>
   </si>
   <si>
-    <t>每38分钟</t>
-  </si>
-  <si>
     <t>缓存需要自动发信的订单</t>
   </si>
   <si>
     <t>SendMessageToeBay.php act=send</t>
-  </si>
-  <si>
-    <t>早上7点</t>
   </si>
   <si>
     <t>自动发信结果发送邮件给指定人</t>
@@ -1846,6 +1831,42 @@
   </si>
   <si>
     <t>每天早上6点40</t>
+  </si>
+  <si>
+    <t>早上7点 修改为 10,15,20点50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每38分钟 修改为 10,15,20点10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每18分钟 修改为9,14,19点10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetEbayItemQuantity.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay定时根据条件设置在线listing库存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 07,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_wish_get_tokens/auto_refresh_access_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时的第11分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2066,8 +2087,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H188" totalsRowShown="0">
-  <autoFilter ref="A1:H188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H189" totalsRowShown="0">
+  <autoFilter ref="A1:H189">
     <filterColumn colId="1"/>
     <filterColumn colId="4"/>
   </autoFilter>
@@ -2372,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2441,13 +2462,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2464,7 +2485,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2487,7 +2508,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2510,7 +2531,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2533,13 +2554,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2797,7 +2818,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2820,16 +2841,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
+        <v>578</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2843,16 +2864,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2866,16 +2887,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2889,16 +2910,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2912,16 +2933,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2935,16 +2956,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2958,16 +2979,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2981,16 +3002,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
         <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -3004,16 +3025,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -3027,16 +3048,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -3050,16 +3071,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -3073,16 +3094,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -3096,22 +3117,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>95</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>18</v>
@@ -3119,22 +3140,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
@@ -3142,22 +3163,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>18</v>
@@ -3165,22 +3186,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>102</v>
       </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>18</v>
@@ -3188,22 +3209,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>105</v>
       </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>18</v>
@@ -3211,22 +3232,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>108</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -3234,22 +3255,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>111</v>
       </c>
-      <c r="D38" t="s">
-        <v>112</v>
-      </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>18</v>
@@ -3257,22 +3278,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>114</v>
       </c>
-      <c r="D39" t="s">
-        <v>115</v>
-      </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>18</v>
@@ -3280,22 +3301,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>18</v>
@@ -3303,22 +3324,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
-      </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>18</v>
@@ -3326,16 +3347,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>120</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -3349,16 +3370,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>124</v>
-      </c>
-      <c r="D43" t="s">
-        <v>125</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -3372,16 +3393,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
         <v>126</v>
       </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>127</v>
-      </c>
-      <c r="D44" t="s">
-        <v>128</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3395,16 +3416,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
         <v>129</v>
-      </c>
-      <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -3418,16 +3439,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -3441,16 +3462,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
         <v>132</v>
-      </c>
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -3464,16 +3485,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3487,16 +3508,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
         <v>137</v>
       </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>138</v>
-      </c>
-      <c r="D49" t="s">
-        <v>139</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -3510,16 +3531,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
         <v>140</v>
       </c>
-      <c r="B50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>141</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3533,16 +3554,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
         <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
@@ -3556,16 +3577,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
         <v>145</v>
       </c>
-      <c r="B52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>146</v>
-      </c>
-      <c r="D52" t="s">
-        <v>147</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3579,16 +3600,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>149</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
@@ -3599,16 +3620,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
         <v>151</v>
-      </c>
-      <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -3619,16 +3640,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
         <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -3639,16 +3660,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
         <v>155</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="s">
-        <v>156</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -3659,16 +3680,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>158</v>
-      </c>
-      <c r="D57" t="s">
-        <v>159</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -3679,16 +3700,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
         <v>160</v>
-      </c>
-      <c r="B58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>12</v>
@@ -3699,16 +3720,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" t="s">
         <v>162</v>
       </c>
-      <c r="B59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>163</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -3719,16 +3740,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
         <v>165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>166</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -3739,16 +3760,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
         <v>167</v>
-      </c>
-      <c r="B61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" t="s">
-        <v>168</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -3759,16 +3780,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
         <v>169</v>
       </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>170</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
@@ -3779,16 +3800,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
         <v>172</v>
-      </c>
-      <c r="B63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
@@ -3799,16 +3820,16 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
         <v>174</v>
-      </c>
-      <c r="B64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" t="s">
-        <v>175</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
@@ -3819,16 +3840,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
         <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
@@ -3839,16 +3860,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
         <v>178</v>
       </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>179</v>
-      </c>
-      <c r="D66" t="s">
-        <v>180</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
@@ -3859,16 +3880,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
         <v>181</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>182</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -3879,16 +3900,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
         <v>183</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>184</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
@@ -3899,16 +3920,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -3921,16 +3942,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>12</v>
@@ -3943,16 +3964,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>12</v>
@@ -3965,16 +3986,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
         <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -3985,16 +4006,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
         <v>195</v>
       </c>
-      <c r="B73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>196</v>
-      </c>
-      <c r="D73" t="s">
-        <v>197</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -4005,16 +4026,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
         <v>198</v>
       </c>
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>199</v>
-      </c>
-      <c r="D74" t="s">
-        <v>200</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
@@ -4025,16 +4046,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>577</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -4045,22 +4066,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
         <v>205</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F76" t="s">
-        <v>207</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>18</v>
@@ -4068,70 +4089,70 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
         <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>18</v>
@@ -4139,22 +4160,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>18</v>
@@ -4162,22 +4183,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
         <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>18</v>
@@ -4185,22 +4206,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>18</v>
@@ -4208,22 +4229,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>18</v>
@@ -4231,22 +4252,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
         <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>18</v>
@@ -4254,22 +4275,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" t="s">
         <v>231</v>
       </c>
-      <c r="B85" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" t="s">
-        <v>233</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>18</v>
@@ -4277,22 +4298,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
         <v>234</v>
       </c>
-      <c r="B86" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F86" t="s">
         <v>235</v>
-      </c>
-      <c r="D86" t="s">
-        <v>236</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>237</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>18</v>
@@ -4300,22 +4321,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
         <v>238</v>
       </c>
-      <c r="B87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" t="s">
-        <v>240</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>18</v>
@@ -4323,22 +4344,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" t="s">
         <v>241</v>
       </c>
-      <c r="B88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F88" t="s">
         <v>242</v>
-      </c>
-      <c r="D88" t="s">
-        <v>243</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>244</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>18</v>
@@ -4346,22 +4367,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>18</v>
@@ -4369,22 +4390,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B90" t="s">
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>18</v>
@@ -4392,22 +4413,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>18</v>
@@ -4415,22 +4436,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>18</v>
@@ -4438,22 +4459,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
         <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>18</v>
@@ -4461,22 +4482,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" t="s">
         <v>257</v>
       </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
-        <v>258</v>
-      </c>
-      <c r="D94" t="s">
-        <v>259</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>18</v>
@@ -4484,22 +4505,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>18</v>
@@ -4507,22 +4528,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" t="s">
         <v>262</v>
       </c>
-      <c r="B96" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D96" t="s">
-        <v>264</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>18</v>
@@ -4530,16 +4551,16 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -4547,21 +4568,21 @@
         <v>18</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="9"/>
@@ -4569,21 +4590,21 @@
         <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9"/>
@@ -4591,21 +4612,21 @@
         <v>18</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9"/>
@@ -4613,21 +4634,21 @@
         <v>18</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -4635,21 +4656,21 @@
         <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -4657,21 +4678,21 @@
         <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="11"/>
@@ -4679,21 +4700,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9"/>
@@ -4701,21 +4722,21 @@
         <v>18</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -4723,21 +4744,21 @@
         <v>18</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -4745,21 +4766,21 @@
         <v>18</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -4767,21 +4788,21 @@
         <v>18</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -4789,21 +4810,21 @@
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -4811,21 +4832,21 @@
         <v>18</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -4833,21 +4854,21 @@
         <v>18</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -4855,21 +4876,21 @@
         <v>18</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -4877,21 +4898,21 @@
         <v>18</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -4899,21 +4920,21 @@
         <v>18</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -4921,21 +4942,21 @@
         <v>18</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -4943,21 +4964,21 @@
         <v>18</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -4965,21 +4986,21 @@
         <v>18</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -4987,21 +5008,21 @@
         <v>18</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -5009,21 +5030,21 @@
         <v>18</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
@@ -5031,21 +5052,21 @@
         <v>18</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="9"/>
@@ -5053,21 +5074,21 @@
         <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -5075,21 +5096,21 @@
         <v>18</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -5097,21 +5118,21 @@
         <v>18</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>328</v>
+        <v>572</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
@@ -5119,21 +5140,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>333</v>
+        <v>571</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -5141,21 +5162,21 @@
         <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="9"/>
@@ -5163,21 +5184,21 @@
         <v>18</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
@@ -5185,21 +5206,21 @@
         <v>18</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="11"/>
@@ -5207,21 +5228,21 @@
         <v>18</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="11"/>
@@ -5229,21 +5250,21 @@
         <v>18</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="11"/>
@@ -5251,21 +5272,21 @@
         <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="9"/>
@@ -5276,16 +5297,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9"/>
@@ -5296,16 +5317,16 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="9"/>
@@ -5316,16 +5337,16 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="9"/>
@@ -5333,21 +5354,21 @@
         <v>18</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="9"/>
@@ -5355,21 +5376,21 @@
         <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="9"/>
@@ -5380,16 +5401,16 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="9"/>
@@ -5400,16 +5421,16 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="9"/>
@@ -5420,16 +5441,16 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -5437,21 +5458,21 @@
         <v>18</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -5462,16 +5483,16 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="9"/>
@@ -5482,16 +5503,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="11"/>
@@ -5499,21 +5520,21 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B142" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="D142" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="11"/>
@@ -5521,21 +5542,21 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="11"/>
@@ -5543,21 +5564,21 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="6"/>
@@ -5565,21 +5586,21 @@
         <v>18</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="6"/>
@@ -5587,21 +5608,21 @@
         <v>18</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="6"/>
@@ -5609,21 +5630,21 @@
         <v>18</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="6"/>
@@ -5631,21 +5652,21 @@
         <v>18</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="6"/>
@@ -5653,21 +5674,21 @@
         <v>18</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="6"/>
@@ -5675,21 +5696,21 @@
         <v>18</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="6"/>
@@ -5697,21 +5718,21 @@
         <v>18</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="6"/>
@@ -5719,21 +5740,21 @@
         <v>18</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="6" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="6"/>
@@ -5741,21 +5762,21 @@
         <v>18</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="6"/>
@@ -5763,21 +5784,21 @@
         <v>18</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="6" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="6"/>
@@ -5785,21 +5806,21 @@
         <v>18</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="6" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="6"/>
@@ -5807,21 +5828,21 @@
         <v>18</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="6"/>
@@ -5829,21 +5850,21 @@
         <v>18</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -5851,21 +5872,21 @@
         <v>18</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="6"/>
@@ -5873,21 +5894,21 @@
         <v>18</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9"/>
@@ -5895,21 +5916,21 @@
         <v>18</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="11"/>
@@ -5917,21 +5938,21 @@
         <v>18</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="11"/>
@@ -5939,21 +5960,21 @@
         <v>18</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9"/>
@@ -5961,21 +5982,21 @@
         <v>18</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9"/>
@@ -5983,21 +6004,21 @@
         <v>18</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -6005,21 +6026,21 @@
         <v>18</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -6027,21 +6048,21 @@
         <v>18</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
@@ -6049,21 +6070,21 @@
         <v>18</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -6071,21 +6092,21 @@
         <v>18</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -6093,21 +6114,21 @@
         <v>18</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="11"/>
@@ -6115,21 +6136,21 @@
         <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="11"/>
@@ -6137,21 +6158,21 @@
         <v>18</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="9"/>
@@ -6159,21 +6180,21 @@
         <v>18</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="9"/>
@@ -6181,36 +6202,36 @@
         <v>18</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D173" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="9"/>
@@ -6218,21 +6239,21 @@
         <v>18</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="9"/>
@@ -6240,21 +6261,21 @@
         <v>18</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="9"/>
@@ -6262,41 +6283,41 @@
         <v>18</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D177" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="15" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="16"/>
@@ -6304,19 +6325,19 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="15" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="16"/>
@@ -6324,19 +6345,19 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="15" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F180" s="15"/>
       <c r="G180" s="16"/>
@@ -6344,16 +6365,16 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="15" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E181" s="16"/>
       <c r="F181" s="15"/>
@@ -6362,16 +6383,16 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E182" s="16"/>
       <c r="F182" s="15"/>
@@ -6380,16 +6401,16 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E183" s="16"/>
       <c r="F183" s="15"/>
@@ -6398,16 +6419,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E184" s="16"/>
       <c r="F184" s="15"/>
@@ -6416,16 +6437,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E185" s="16"/>
       <c r="F185" s="15"/>
@@ -6434,16 +6455,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="15" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B186" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E186" s="16"/>
       <c r="F186" s="15"/>
@@ -6452,16 +6473,16 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="15" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D187" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E187" s="16"/>
       <c r="F187" s="15"/>
@@ -6470,32 +6491,50 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="15" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E188" s="16"/>
       <c r="F188" s="15"/>
       <c r="G188" s="16"/>
       <c r="H188" s="15"/>
     </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E189" s="16"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E189">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F189">
       <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G189">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6525,7 +6564,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B2" s="22"/>
     </row>
@@ -6535,68 +6574,68 @@
     </row>
     <row r="4" spans="1:2" ht="18.75">
       <c r="A4" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>517</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27">
       <c r="A10" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -114,9 +114,6 @@
     <t>新版smt订单标记发货(订单状态是已通过并且订单创建时间是最近3-10天订单)</t>
   </si>
   <si>
-    <t>autoSetSkuStockZero.php</t>
-  </si>
-  <si>
     <t>早上2点05</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
   </si>
   <si>
     <t>更新SKU每日实际库存(财务需要)</t>
-  </si>
-  <si>
-    <t>AutoMatchingWarehouse1.php</t>
   </si>
   <si>
     <t>海外仓</t>
@@ -1674,10 +1668,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>orders_setting.php action=auto_mark_orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>orders_setting.php action=auto_orders_export_service</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1866,6 +1856,18 @@
   </si>
   <si>
     <t>每2个小时的第11分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders_setting.php action=auto_mark_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoMatchingWarehouse1.php 这个旧的废弃，新的：/auto/AutoMatchingWarehouse_new.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetSkuStockZero.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2004,7 +2006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2047,9 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2071,6 +2070,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,7 +2097,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H189" totalsRowShown="0">
   <autoFilter ref="A1:H189">
-    <filterColumn colId="1"/>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="aliexpress"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="8">
@@ -2396,14 +2408,14 @@
   <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="64.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="91.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
@@ -2462,13 +2474,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2508,7 +2520,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2531,7 +2543,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2554,13 +2566,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2634,22 +2646,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>578</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -2657,22 +2669,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
@@ -2680,16 +2692,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -2703,22 +2715,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
@@ -2726,22 +2738,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -2749,22 +2761,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
@@ -2772,16 +2784,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -2793,18 +2805,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -2816,18 +2828,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -2839,18 +2851,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>575</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>578</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2862,18 +2874,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2885,18 +2897,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2908,18 +2920,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
         <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2931,18 +2943,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2954,18 +2966,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2977,18 +2989,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -3000,18 +3012,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -3023,18 +3035,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -3046,18 +3058,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -3069,18 +3081,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -3092,18 +3104,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -3115,248 +3127,248 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1">
+      <c r="A37" t="s">
+        <v>521</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>523</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1">
+      <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
+      <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
+      <c r="A42" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
         <v>118</v>
       </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -3368,18 +3380,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>122</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>123</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>12</v>
@@ -3391,18 +3403,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
         <v>125</v>
       </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" t="s">
-        <v>127</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3414,18 +3426,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
         <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -3437,18 +3449,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>12</v>
@@ -3460,18 +3472,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
         <v>131</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
@@ -3483,18 +3495,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
         <v>133</v>
       </c>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3506,18 +3518,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
         <v>136</v>
       </c>
-      <c r="B49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>137</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -3529,18 +3541,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>140</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3552,18 +3564,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>143</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
@@ -3575,18 +3587,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
         <v>144</v>
       </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>145</v>
-      </c>
-      <c r="D52" t="s">
-        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3598,318 +3610,318 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
         <v>147</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>148</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1">
+      <c r="A54" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1">
+      <c r="A55" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1">
+      <c r="A56" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
         <v>154</v>
       </c>
-      <c r="B56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1">
+      <c r="A57" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
         <v>156</v>
       </c>
-      <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>157</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1">
+      <c r="A58" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
         <v>159</v>
       </c>
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1">
+      <c r="A59" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
         <v>161</v>
       </c>
-      <c r="B59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>162</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
+      <c r="A60" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
         <v>164</v>
       </c>
-      <c r="B60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1">
+      <c r="A61" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
         <v>166</v>
       </c>
-      <c r="B61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1">
+      <c r="A62" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>169</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1">
+      <c r="A63" t="s">
         <v>170</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
         <v>171</v>
       </c>
-      <c r="B63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1">
+      <c r="A64" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
         <v>173</v>
       </c>
-      <c r="B64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1">
+      <c r="A65" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
         <v>175</v>
       </c>
-      <c r="B65" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1">
+      <c r="A66" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
         <v>177</v>
       </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>178</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1">
+      <c r="A67" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
         <v>180</v>
       </c>
-      <c r="B67" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1">
+      <c r="A68" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
         <v>182</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>183</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
@@ -3920,16 +3932,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -3940,18 +3952,18 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>12</v>
@@ -3962,18 +3974,18 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>12</v>
@@ -3984,78 +3996,78 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
         <v>192</v>
       </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1">
+      <c r="A73" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
         <v>194</v>
       </c>
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>195</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1">
+      <c r="A74" t="s">
         <v>196</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
         <v>197</v>
       </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>198</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1">
+      <c r="A75" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
         <v>199</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>577</v>
-      </c>
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" t="s">
-        <v>200</v>
-      </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -4066,300 +4078,300 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" t="s">
         <v>202</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" t="s">
         <v>204</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1">
+      <c r="A77" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="E77" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H77" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1">
+      <c r="A78" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="6" t="s">
+      <c r="B78" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="E78" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
         <v>213</v>
       </c>
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>214</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1">
+      <c r="A80" t="s">
         <v>215</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" t="s">
         <v>204</v>
       </c>
-      <c r="F79" t="s">
-        <v>205</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>216</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" t="s">
-        <v>217</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="G80" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1">
+      <c r="A81" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" t="s">
         <v>204</v>
       </c>
-      <c r="F80" t="s">
-        <v>205</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1">
+      <c r="A82" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" t="s">
         <v>204</v>
       </c>
-      <c r="F81" t="s">
-        <v>205</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="G82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1">
+      <c r="A83" t="s">
         <v>223</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="B83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" t="s">
         <v>204</v>
       </c>
-      <c r="F82" t="s">
-        <v>205</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1">
+      <c r="A84" t="s">
         <v>225</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" t="s">
         <v>204</v>
       </c>
-      <c r="F83" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="G84" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1">
+      <c r="A85" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" t="s">
         <v>204</v>
       </c>
-      <c r="F84" t="s">
-        <v>205</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>229</v>
-      </c>
-      <c r="B85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="G85" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1">
+      <c r="A86" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" t="s">
-        <v>205</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="8" t="s">
+      <c r="B86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" t="s">
         <v>232</v>
       </c>
-      <c r="B86" t="s">
-        <v>189</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>233</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" t="s">
         <v>234</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1">
+      <c r="A87" t="s">
         <v>235</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>236</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
         <v>237</v>
       </c>
-      <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1">
+      <c r="A88" t="s">
         <v>238</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" t="s">
-        <v>235</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
         <v>239</v>
       </c>
-      <c r="B88" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>240</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" t="s">
         <v>241</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F88" t="s">
-        <v>242</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>18</v>
@@ -4367,200 +4379,200 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D89" t="s">
         <v>244</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1">
+      <c r="A90" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" t="s">
         <v>204</v>
       </c>
-      <c r="F89" t="s">
-        <v>205</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>246</v>
-      </c>
-      <c r="B90" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="G90" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1">
+      <c r="A91" t="s">
         <v>247</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" t="s">
+        <v>249</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F91" t="s">
         <v>204</v>
       </c>
-      <c r="F90" t="s">
-        <v>205</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="G91" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
+      <c r="A92" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" t="s">
         <v>204</v>
       </c>
-      <c r="F91" t="s">
-        <v>205</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="G92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
+      <c r="A93" t="s">
         <v>252</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" t="s">
         <v>204</v>
       </c>
-      <c r="F92" t="s">
-        <v>205</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="G93" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1">
+      <c r="A94" t="s">
         <v>254</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F93" t="s">
-        <v>205</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
         <v>255</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>256</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" t="s">
+        <v>234</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1">
+      <c r="A95" t="s">
         <v>257</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F94" t="s">
-        <v>235</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="s">
+        <v>545</v>
+      </c>
+      <c r="D95" t="s">
         <v>258</v>
       </c>
-      <c r="B95" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" t="s">
-        <v>548</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F95" t="s">
+        <v>234</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1">
+      <c r="A96" t="s">
         <v>259</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F95" t="s">
-        <v>235</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
         <v>260</v>
       </c>
-      <c r="B96" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>261</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1">
+      <c r="A97" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F96" t="s">
-        <v>242</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
@@ -4568,21 +4580,21 @@
         <v>18</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="9"/>
@@ -4590,21 +4602,21 @@
         <v>18</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="9"/>
@@ -4612,21 +4624,21 @@
         <v>18</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="9"/>
@@ -4634,21 +4646,21 @@
         <v>18</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -4656,21 +4668,21 @@
         <v>18</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -4678,21 +4690,21 @@
         <v>18</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="11"/>
@@ -4700,21 +4712,21 @@
         <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="9"/>
@@ -4722,21 +4734,21 @@
         <v>18</v>
       </c>
       <c r="H104" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1">
+      <c r="A105" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="6" t="s">
+      <c r="B105" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="6"/>
@@ -4744,21 +4756,21 @@
         <v>18</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6"/>
@@ -4766,21 +4778,21 @@
         <v>18</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6"/>
@@ -4788,21 +4800,21 @@
         <v>18</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="6"/>
@@ -4810,21 +4822,21 @@
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="6"/>
@@ -4832,21 +4844,21 @@
         <v>18</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="6"/>
@@ -4854,21 +4866,21 @@
         <v>18</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -4876,21 +4888,21 @@
         <v>18</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
@@ -4898,21 +4910,21 @@
         <v>18</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -4920,21 +4932,21 @@
         <v>18</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -4942,21 +4954,21 @@
         <v>18</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -4964,21 +4976,21 @@
         <v>18</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -4986,21 +4998,21 @@
         <v>18</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -5008,21 +5020,21 @@
         <v>18</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -5030,21 +5042,21 @@
         <v>18</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="9"/>
@@ -5052,21 +5064,21 @@
         <v>18</v>
       </c>
       <c r="H119" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="13.5" hidden="1" customHeight="1">
+      <c r="A120" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="9" t="s">
-        <v>322</v>
-      </c>
       <c r="B120" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="9"/>
@@ -5074,65 +5086,63 @@
         <v>18</v>
       </c>
       <c r="H120" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A121" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="22"/>
+      <c r="G121" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="6" t="s">
+    </row>
+    <row r="122" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A122" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E122" s="22"/>
+      <c r="G122" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1">
+      <c r="A123" s="9" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="9" t="s">
+      <c r="B123" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>326</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>327</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="9"/>
@@ -5140,21 +5150,21 @@
         <v>18</v>
       </c>
       <c r="H123" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1">
+      <c r="A124" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="9" t="s">
+      <c r="B124" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="9"/>
@@ -5162,21 +5172,21 @@
         <v>18</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="9"/>
@@ -5184,21 +5194,21 @@
         <v>18</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
@@ -5206,21 +5216,21 @@
         <v>18</v>
       </c>
       <c r="H126" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1">
+      <c r="A127" s="11" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="11" t="s">
+      <c r="B127" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="11"/>
@@ -5228,21 +5238,21 @@
         <v>18</v>
       </c>
       <c r="H127" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1">
+      <c r="A128" s="11" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="11" t="s">
+      <c r="B128" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="11"/>
@@ -5250,21 +5260,21 @@
         <v>18</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="11" t="s">
+      <c r="D129" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="11"/>
@@ -5272,21 +5282,21 @@
         <v>18</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="D130" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="9"/>
@@ -5295,18 +5305,18 @@
       </c>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="9"/>
@@ -5315,18 +5325,18 @@
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="D132" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="9"/>
@@ -5335,18 +5345,18 @@
       </c>
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="9"/>
@@ -5354,21 +5364,21 @@
         <v>18</v>
       </c>
       <c r="H133" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1">
+      <c r="A134" s="9" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="9" t="s">
-        <v>355</v>
-      </c>
       <c r="B134" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="9"/>
@@ -5376,21 +5386,21 @@
         <v>18</v>
       </c>
       <c r="H134" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1">
+      <c r="A135" s="9" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="9" t="s">
+      <c r="B135" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="9"/>
@@ -5399,18 +5409,18 @@
       </c>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="9"/>
@@ -5419,18 +5429,18 @@
       </c>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="9"/>
@@ -5439,18 +5449,18 @@
       </c>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="D138" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="9"/>
@@ -5458,21 +5468,21 @@
         <v>18</v>
       </c>
       <c r="H138" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" hidden="1">
+      <c r="A139" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="D139" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="9"/>
@@ -5481,18 +5491,18 @@
       </c>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="9"/>
@@ -5501,18 +5511,18 @@
       </c>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="11"/>
@@ -5520,21 +5530,21 @@
         <v>18</v>
       </c>
       <c r="H141" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1">
+      <c r="A142" s="13" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="13" t="s">
+      <c r="B142" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="D142" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>376</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="11"/>
@@ -5542,21 +5552,21 @@
         <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="D143" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="11"/>
@@ -5564,351 +5574,336 @@
         <v>18</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A144" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="D144" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="E144" s="22"/>
+      <c r="G144" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="D144" s="6" t="s">
+    </row>
+    <row r="145" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A145" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H144" s="6" t="s">
+      <c r="B145" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" s="21" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="6" t="s">
+      <c r="D145" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="E145" s="22"/>
+      <c r="G145" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A146" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="B146" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="6" t="s">
+      <c r="D146" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="E146" s="22"/>
+      <c r="G146" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A147" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="B147" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C147" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="6" t="s">
+      <c r="D147" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C147" s="6" t="s">
+      <c r="E147" s="22"/>
+      <c r="G147" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A148" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="B148" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="6" t="s">
+      <c r="D148" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C148" s="6" t="s">
+      <c r="E148" s="22"/>
+      <c r="G148" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A149" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="B149" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="6" t="s">
+      <c r="D149" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C149" s="6" t="s">
+      <c r="E149" s="22"/>
+      <c r="G149" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A150" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="B150" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E149" s="7"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="6" t="s">
+      <c r="D150" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C150" s="6" t="s">
+      <c r="E150" s="22"/>
+      <c r="G150" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A151" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="B151" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D151" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="6" t="s">
+      <c r="E151" s="22"/>
+      <c r="G151" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A152" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D152" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="E152" s="22"/>
+      <c r="G152" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A153" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="E153" s="22"/>
+      <c r="G153" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A154" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="E154" s="22"/>
+      <c r="G154" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A155" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="D155" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="E155" s="22"/>
+      <c r="G155" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A156" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="B156" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="14" t="s">
+      <c r="E156" s="22"/>
+      <c r="G156" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A157" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="B157" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="6" t="s">
+      <c r="E157" s="22"/>
+      <c r="G157" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="21" customFormat="1" hidden="1">
+      <c r="A158" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E158" s="22"/>
+      <c r="G158" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" hidden="1">
+      <c r="A159" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D157" s="6" t="s">
+      <c r="B159" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E157" s="7"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E158" s="7"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="9" t="s">
+      <c r="D159" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="9"/>
@@ -5916,21 +5911,21 @@
         <v>18</v>
       </c>
       <c r="H159" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" hidden="1">
+      <c r="A160" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="11" t="s">
+      <c r="D160" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>420</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="11"/>
@@ -5938,21 +5933,21 @@
         <v>18</v>
       </c>
       <c r="H160" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" hidden="1">
+      <c r="A161" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D161" s="11" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="11"/>
@@ -5960,21 +5955,21 @@
         <v>18</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="9"/>
@@ -5982,21 +5977,21 @@
         <v>18</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="9"/>
@@ -6004,21 +5999,21 @@
         <v>18</v>
       </c>
       <c r="H163" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1">
+      <c r="A164" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="11"/>
@@ -6026,21 +6021,21 @@
         <v>18</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" hidden="1">
       <c r="A165" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="9"/>
@@ -6048,21 +6043,21 @@
         <v>18</v>
       </c>
       <c r="H165" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" hidden="1">
+      <c r="A166" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="9" t="s">
+      <c r="D166" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="9"/>
@@ -6070,21 +6065,21 @@
         <v>18</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="9"/>
@@ -6092,21 +6087,21 @@
         <v>18</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="11"/>
@@ -6114,21 +6109,21 @@
         <v>18</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="11"/>
@@ -6136,21 +6131,21 @@
         <v>18</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="11"/>
@@ -6158,21 +6153,21 @@
         <v>18</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="9"/>
@@ -6180,21 +6175,21 @@
         <v>18</v>
       </c>
       <c r="H171" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" hidden="1">
+      <c r="A172" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="9"/>
@@ -6202,36 +6197,36 @@
         <v>18</v>
       </c>
       <c r="H172" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" hidden="1">
+      <c r="A173" t="s">
+        <v>452</v>
+      </c>
+      <c r="B173" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" t="s">
+        <v>67</v>
+      </c>
+      <c r="D173" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
+      <c r="G173" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B173" t="s">
-        <v>237</v>
-      </c>
-      <c r="C173" t="s">
-        <v>68</v>
-      </c>
-      <c r="D173" t="s">
+    </row>
+    <row r="174" spans="1:8" hidden="1">
+      <c r="A174" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="B174" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="9"/>
@@ -6239,21 +6234,21 @@
         <v>18</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="9"/>
@@ -6261,21 +6256,21 @@
         <v>18</v>
       </c>
       <c r="H175" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" hidden="1">
+      <c r="A176" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>464</v>
-      </c>
       <c r="D176" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="9"/>
@@ -6283,247 +6278,247 @@
         <v>18</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
+        <v>463</v>
+      </c>
+      <c r="B177" t="s">
+        <v>146</v>
+      </c>
+      <c r="C177" t="s">
+        <v>464</v>
+      </c>
+      <c r="D177" t="s">
         <v>465</v>
       </c>
-      <c r="B177" t="s">
-        <v>147</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="G177" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D177" t="s">
-        <v>467</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="15" t="s">
-        <v>474</v>
+      <c r="A178" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F178" s="14"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F178" s="15"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="15"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="15" t="s">
-        <v>477</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F179" s="15"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="15"/>
+      <c r="C179" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F179" s="14"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="14"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="15" t="s">
-        <v>478</v>
+      <c r="A180" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C180" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F180" s="15"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="15"/>
+      <c r="C180" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="14"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="15" t="s">
-        <v>488</v>
+      <c r="A181" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C181" s="15" t="s">
+      <c r="C181" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D181" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D181" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E181" s="16"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="15" t="s">
-        <v>489</v>
+      <c r="A182" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="15" t="s">
+      <c r="C182" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="D182" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="D182" s="15" t="s">
+      <c r="E182" s="15"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8" hidden="1">
+      <c r="A183" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="E182" s="16"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="15"/>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="15" t="s">
+      <c r="D183" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E183" s="15"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:8" hidden="1">
+      <c r="A184" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="D183" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="E183" s="16"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="15"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="15" t="s">
+      <c r="B184" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="B184" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E184" s="16"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="15"/>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="15" t="s">
+      <c r="D184" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E184" s="15"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:8" hidden="1">
+      <c r="A185" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C185" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="D185" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="C185" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D185" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="E185" s="16"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="15"/>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="15" t="s">
-        <v>532</v>
+      <c r="E185" s="15"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="14"/>
+    </row>
+    <row r="186" spans="1:8" hidden="1">
+      <c r="A186" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="E186" s="16"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="15"/>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E186" s="15"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8" hidden="1">
+      <c r="A187" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B187" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>554</v>
-      </c>
       <c r="D187" t="s">
-        <v>553</v>
-      </c>
-      <c r="E187" s="16"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="15"/>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="D188" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="E188" s="16"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="15"/>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E187" s="15"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="1:8" hidden="1">
+      <c r="A188" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="E188" s="15"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8" hidden="1">
+      <c r="A189" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C189" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B189" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="E189" s="16"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="15"/>
+      <c r="D189" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E189" s="15"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6563,79 +6558,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="22"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-    </row>
-    <row r="4" spans="1:2" ht="18.75">
-      <c r="A4" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="27">
+      <c r="A10" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>511</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27">
-      <c r="A10" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -9,17 +9,16 @@
   <sheets>
     <sheet name="系统定时任务列表" sheetId="1" r:id="rId1"/>
     <sheet name="组员负责模块分配" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$E$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$E$202</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="625">
   <si>
     <t>文件名</t>
   </si>
@@ -213,9 +212,6 @@
     <t>每20分钟</t>
   </si>
   <si>
-    <t>下架停售或卖完下架sku</t>
-  </si>
-  <si>
     <t>autoSetLocalItemQuantityZeroOnSelling.php</t>
   </si>
   <si>
@@ -231,9 +227,6 @@
     <t>每2小时的20分钟</t>
   </si>
   <si>
-    <t>上调listing在线数量</t>
-  </si>
-  <si>
     <t>autoSetLocalItemQuantityZeroUnSellTemp.php</t>
   </si>
   <si>
@@ -630,9 +623,6 @@
     <t>姜笛</t>
   </si>
   <si>
-    <t>amzListOrders.php</t>
-  </si>
-  <si>
     <t>amazon</t>
   </si>
   <si>
@@ -645,12 +635,6 @@
     <t>amazon不做</t>
   </si>
   <si>
-    <t>amzListOrderItems.php</t>
-  </si>
-  <si>
-    <t>amazon账号订单详情同步</t>
-  </si>
-  <si>
     <t>disputeManage.php action=autoAddDispute</t>
   </si>
   <si>
@@ -777,12 +761,6 @@
     <t>标记case为return case</t>
   </si>
   <si>
-    <t>NoPutInStorage.php</t>
-  </si>
-  <si>
-    <t>早上4点15分</t>
-  </si>
-  <si>
     <t>procurement_no_delivered.php</t>
   </si>
   <si>
@@ -882,15 +860,6 @@
     <t>初始化一次amazon所有账号同步时间</t>
   </si>
   <si>
-    <t>amzSubmitFeedNew.php</t>
-  </si>
-  <si>
-    <t>每小时第13分钟</t>
-  </si>
-  <si>
-    <t>amazon账号订单标记发货</t>
-  </si>
-  <si>
     <t>autoCheckAmzOrderStatus.php</t>
   </si>
   <si>
@@ -1212,9 +1181,6 @@
     <t>14天销量</t>
   </si>
   <si>
-    <t>CountMargin.php</t>
-  </si>
-  <si>
     <t>计算sku利润率</t>
   </si>
   <si>
@@ -1482,10 +1448,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoSetLocalItemQuantityZero.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>smtAPI/autoGetShippingCode.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1510,10 +1472,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoSendProcurementToEmail.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>早上08点10分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1564,10 +1522,6 @@
   <si>
     <t>amazon</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常安堤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李达标</t>
@@ -1586,16 +1540,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>服务器维护；erp系统逻辑性能优化；紧急任务或bug开发；开发需求沟通、整理、分配；组员开发指导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IT部人员日常工作分配</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁豪真</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>业务需求整理确认；需求文档撰写；开发文档整理；
@@ -1619,21 +1565,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>joom平台；仓库模块；物流api对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lazada,cd平台；采购模块；物流api对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>admin/auto/auto_lazada index</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish平台刊登抓单,平台标记发货；
-ebay平台相关（抓单，message,case等)；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>何建成</t>
@@ -1656,10 +1589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>orders_setting.php action=auto_orders_export_service</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_upload_jhd.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1681,10 +1610,6 @@
   </si>
   <si>
     <t>Fba仓库sku信息统计发送email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去一个月新开发的SKU，7天，14天，30天的销量进行邮件推送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1784,232 +1709,362 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>每天晚上11点18分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停产状态且实库存大于0的SKU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早上6点40</t>
+  </si>
+  <si>
+    <t>早上7点 修改为 10,15,20点50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每38分钟 修改为 10,15,20点10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每18分钟 修改为9,14,19点10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetEbayItemQuantity.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_wish_get_tokens/auto_refresh_access_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时的第11分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders_setting.php action=auto_mark_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetSkuStockZero.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在产品管理模块中修改sku状态为停产、卖完下架、清空库存中时候，平台上的sku自动执行下架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSendMailWithFBA.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoGetYiKeDatrankno.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓物流易可达（众腾）下单获取跟踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetEbayItemQuantityOnSale.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetEbayItemQuantitySF.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17点10分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay定时根据条件设置在售的在线listing库存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17点52分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 07,17,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay定时根据条件设置货源待定的在线listing库存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoGetYiKeDaCreatOrder.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoGetDafangtrankno.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时第20分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时第5分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时第15分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓物流易可达（众腾）物流下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓物流达方获取跟踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_wish_hwcsku_shelves.php</t>
+  </si>
+  <si>
+    <t>wish平台，所有的海外仓sku，只要虚库存大于等于2 ，wish有inactive的listing ，则自动上架</t>
+  </si>
+  <si>
+    <t>auto_wish_hwcsku_disable.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish 海外仓sku虚库存为0的sku自动下架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendWishData.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上8点05分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计wish订单销售额、订单数量并发送邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送已收货未入库采购单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_lazada auto_cancel_orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_cdiscount/getOrdersList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_upload_ost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OST英国专线自动上传 获取追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18点，晚上12点跑一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收货扫描起3到20天，入库数量依然为0的采购单发送邮件（入库情况数据统计）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockSetting.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGetOnlineItemsReport.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_upload_order_to_shuncheng_bpost.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>义乌仓比利时邮政小包获取追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每4个小时第40分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetLocalItemQuantityZerobak.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendSkuIsStopedAndNum.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去一个月新开发的SKU，7天，14天，30天的销量进行邮件推送(过去120天新开发SKU销量)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>autoSendNewProductSales.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每天晚上11点18分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停产状态且实库存大于0的SKU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天早上6点40</t>
-  </si>
-  <si>
-    <t>早上7点 修改为 10,15,20点50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每38分钟 修改为 10,15,20点10分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每18分钟 修改为9,14,19点10分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSetEbayItemQuantity.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/auto/auto_wish_get_tokens/auto_refresh_access_token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时的第11分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders_setting.php action=auto_mark_orders</t>
+    <t>NoPutInStorage.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountMargin.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有在线状态的新到货，且虚库存大于0的SKU，上调listing在线数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetEbayItemQuantityUK.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 02,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线SKU库存数量为0，且SKU状态为清库存中，停产，卖完下架，如果虚拟库存大于10，则SKU在线数量更新为3，如果虚拟库存大于等于5且小于等于10，则SKU库存在线数量更新为1</t>
+  </si>
+  <si>
+    <t>当该条广告的物品所在地是UK，且SKU虚库存小于等于5时，该SKU的在线数量设置为0，且广告不下线。当该SKU虚库存大于等于7时，该SKU在线数量从0设置为5。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卿孝平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亮君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库模块；物流api对接；joom平台；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宏鹏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish平台相关(刊登抓单,平台标记发货)；
+lazada,cd平台；订单相关；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay平台相关（抓单，在线数量监控，message,case等)；
+物流api对接；订单相关；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器运维，系统架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停售或卖完下架sku，如果虚库存+在途 小于等于1则执行下架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSetLocalItemQuantityZero.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders_setting.php action=auto_orders_export_service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendProcurementToEmail.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上7点25分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时第13分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购模块；拆包裹收货运单号关联采购单；
+物流api对接；手持设备的收货上架；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzListOrders.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon账号订单详情同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzListOrderItems.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzSubmitFeedNew.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon账号订单标记发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon平台，海外仓系统；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7天销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 06,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountHwcSevenDaySales.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AutoMatchingWarehouse1.php 这个旧的废弃，新的：/auto/AutoMatchingWarehouse_new.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSetSkuStockZero.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当在产品管理模块中修改sku状态为停产、卖完下架、清空库存中时候，平台上的sku自动执行下架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoSendMailWithFBA.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoGetYiKeDatrankno.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海外仓物流易可达（众腾）下单获取跟踪号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSetEbayItemQuantityOnSale.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSetEbayItemQuantitySF.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17点10分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebay定时根据条件设置在售的在线listing库存数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebay定时根据条件设置清库存中，停产，卖完下架的在线listing库存数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17点52分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 07,17,22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebay定时根据条件设置货源待定的在线listing库存数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoGetYiKeDaCreatOrder.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoGetDafangtrankno.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时第20分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时第5分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时第15分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海外仓物流易可达（众腾）物流下单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海外仓物流达方获取跟踪号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_wish_hwcsku_shelves.php</t>
-  </si>
-  <si>
-    <t>wish平台，所有的海外仓sku，只要虚库存大于等于2 ，wish有inactive的listing ，则自动上架</t>
-  </si>
-  <si>
-    <t>auto_wish_hwcsku_disable.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish 海外仓sku虚库存为0的sku自动下架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSendWishData.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上8点05分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wish</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计wish订单销售额、订单数量并发送邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件发送已收货未入库采购单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/auto/auto_lazada auto_cancel_orders</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/auto/auto_cdiscount/getOrdersList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_upload_ost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OST英国专线自动上传 获取追踪号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18点，晚上12点跑一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已收货扫描起3到20天，入库数量依然为0的采购单发送邮件（入库情况数据统计）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stockSetting.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoGetOnlineItemsReport.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_upload_order_to_shuncheng_bpost.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>义乌仓比利时邮政小包获取追踪号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2个小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每4个小时第40分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSetLocalItemQuantityZerobak.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2072,7 +2127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,12 +2137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,6 +2155,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,7 +2209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2167,14 +2228,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2182,13 +2243,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2203,26 +2258,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2234,25 +2310,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I200" totalsRowShown="0">
-  <autoFilter ref="A1:I200">
-    <filterColumn colId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I202" totalsRowShown="0">
+  <autoFilter ref="A1:I202">
     <filterColumn colId="2">
       <filters>
-        <filter val="ebay"/>
+        <filter val="所有"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="文件名"/>
-    <tableColumn id="9" name="系统"/>
+    <tableColumn id="9" name="系统" dataDxfId="0"/>
     <tableColumn id="2" name="平台"/>
     <tableColumn id="3" name="执行频率"/>
     <tableColumn id="4" name="功能描述"/>
@@ -2552,15 +2630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="97.75" customWidth="1"/>
+    <col min="1" max="1" width="64.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
@@ -2576,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2604,6 +2682,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -2625,13 +2704,14 @@
     </row>
     <row r="3" spans="1:9" hidden="1">
       <c r="A3" t="s">
-        <v>480</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2648,8 +2728,9 @@
     </row>
     <row r="4" spans="1:9" hidden="1">
       <c r="A4" t="s">
-        <v>465</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -2671,8 +2752,9 @@
     </row>
     <row r="5" spans="1:9" hidden="1">
       <c r="A5" t="s">
-        <v>464</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -2694,8 +2776,9 @@
     </row>
     <row r="6" spans="1:9" hidden="1">
       <c r="A6" t="s">
-        <v>478</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -2717,19 +2800,21 @@
     </row>
     <row r="7" spans="1:9" hidden="1">
       <c r="A7" t="s">
-        <v>476</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1">
       <c r="A8" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -2753,6 +2838,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -2776,6 +2862,7 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -2797,8 +2884,9 @@
     </row>
     <row r="11" spans="1:9" hidden="1">
       <c r="A11" t="s">
-        <v>570</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -2822,6 +2910,7 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
+      <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -2845,6 +2934,7 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -2868,6 +2958,7 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -2891,6 +2982,7 @@
       <c r="A15" t="s">
         <v>43</v>
       </c>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -2914,6 +3006,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -2937,6 +3030,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>9</v>
       </c>
@@ -2958,8 +3052,9 @@
     </row>
     <row r="18" spans="1:8" hidden="1">
       <c r="A18" t="s">
-        <v>600</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3076,9 @@
     </row>
     <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
-        <v>494</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>51</v>
       </c>
@@ -3002,15 +3098,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" t="s">
-        <v>568</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -3025,10 +3122,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" t="s">
-        <v>463</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>56</v>
       </c>
@@ -3048,10 +3146,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
         <v>60</v>
       </c>
+      <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>56</v>
       </c>
@@ -3071,11 +3170,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:8" hidden="1">
+      <c r="A23" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="B23" s="1">
         <v>25</v>
       </c>
       <c r="C23" t="s">
@@ -3085,7 +3184,7 @@
         <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>608</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -3097,21 +3196,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:8" hidden="1">
+      <c r="A24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
         <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
       </c>
       <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -3123,21 +3222,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:8" hidden="1">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>595</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -3149,21 +3248,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:8" hidden="1">
+      <c r="A26" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -3175,18 +3274,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -3198,18 +3298,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
@@ -3221,18 +3322,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -3244,18 +3346,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -3267,18 +3370,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
-        <v>86</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
@@ -3292,22 +3396,23 @@
     </row>
     <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>18</v>
@@ -3315,22 +3420,23 @@
     </row>
     <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>18</v>
@@ -3338,22 +3444,23 @@
     </row>
     <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
-        <v>96</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>18</v>
@@ -3361,22 +3468,23 @@
     </row>
     <row r="35" spans="1:8" hidden="1">
       <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>18</v>
@@ -3384,22 +3492,23 @@
     </row>
     <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>18</v>
@@ -3407,22 +3516,23 @@
     </row>
     <row r="37" spans="1:8" hidden="1">
       <c r="A37" t="s">
-        <v>517</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>14</v>
@@ -3430,22 +3540,23 @@
     </row>
     <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
-        <v>599</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>18</v>
@@ -3453,22 +3564,23 @@
     </row>
     <row r="39" spans="1:8" hidden="1">
       <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
         <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
@@ -3476,22 +3588,23 @@
     </row>
     <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
-        <v>112</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>18</v>
@@ -3499,22 +3612,23 @@
     </row>
     <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
         <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
@@ -3522,16 +3636,17 @@
     </row>
     <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
@@ -3545,16 +3660,17 @@
     </row>
     <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
@@ -3568,16 +3684,17 @@
     </row>
     <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
@@ -3591,16 +3708,17 @@
     </row>
     <row r="45" spans="1:8" hidden="1">
       <c r="A45" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
         <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
@@ -3614,16 +3732,17 @@
     </row>
     <row r="46" spans="1:8" hidden="1">
       <c r="A46" t="s">
-        <v>127</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
@@ -3637,16 +3756,19 @@
     </row>
     <row r="47" spans="1:8" hidden="1">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="B47" s="1">
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>12</v>
@@ -3660,16 +3782,17 @@
     </row>
     <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
         <v>130</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
@@ -3683,16 +3806,19 @@
     </row>
     <row r="49" spans="1:8" hidden="1">
       <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
         <v>133</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
@@ -3706,16 +3832,17 @@
     </row>
     <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
         <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" t="s">
-        <v>138</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
@@ -3729,16 +3856,17 @@
     </row>
     <row r="51" spans="1:8" hidden="1">
       <c r="A51" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
         <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
@@ -3752,16 +3880,17 @@
     </row>
     <row r="52" spans="1:8" hidden="1">
       <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
         <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
@@ -3775,16 +3904,17 @@
     </row>
     <row r="53" spans="1:8" hidden="1">
       <c r="A53" t="s">
-        <v>479</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B53" s="1"/>
       <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" t="s">
         <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>146</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
@@ -3795,16 +3925,17 @@
     </row>
     <row r="54" spans="1:8" hidden="1">
       <c r="A54" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B54" s="1"/>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
@@ -3815,16 +3946,17 @@
     </row>
     <row r="55" spans="1:8" hidden="1">
       <c r="A55" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
@@ -3835,16 +3967,17 @@
     </row>
     <row r="56" spans="1:8" hidden="1">
       <c r="A56" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
@@ -3855,16 +3988,17 @@
     </row>
     <row r="57" spans="1:8" hidden="1">
       <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
         <v>153</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" t="s">
-        <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
@@ -3875,16 +4009,17 @@
     </row>
     <row r="58" spans="1:8" hidden="1">
       <c r="A58" t="s">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
@@ -3895,16 +4030,17 @@
     </row>
     <row r="59" spans="1:8" hidden="1">
       <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" t="s">
         <v>158</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" t="s">
-        <v>160</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>12</v>
@@ -3915,16 +4051,17 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>12</v>
@@ -3935,16 +4072,17 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>163</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>12</v>
@@ -3955,16 +4093,17 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
         <v>165</v>
-      </c>
-      <c r="C62" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" t="s">
-        <v>167</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>12</v>
@@ -3975,16 +4114,17 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>12</v>
@@ -3995,16 +4135,17 @@
     </row>
     <row r="64" spans="1:8" hidden="1">
       <c r="A64" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>12</v>
@@ -4015,16 +4156,17 @@
     </row>
     <row r="65" spans="1:9" hidden="1">
       <c r="A65" t="s">
-        <v>172</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
         <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>12</v>
@@ -4035,16 +4177,17 @@
     </row>
     <row r="66" spans="1:9" hidden="1">
       <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" t="s">
-        <v>176</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>12</v>
@@ -4055,16 +4198,17 @@
     </row>
     <row r="67" spans="1:9" hidden="1">
       <c r="A67" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B67" s="1"/>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
         <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>12</v>
@@ -4075,16 +4219,17 @@
     </row>
     <row r="68" spans="1:9" hidden="1">
       <c r="A68" t="s">
-        <v>179</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B68" s="1"/>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
         <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>12</v>
@@ -4095,17 +4240,17 @@
     </row>
     <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="B69" s="5"/>
       <c r="C69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>12</v>
@@ -4116,19 +4261,19 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B70" s="4"/>
+        <v>610</v>
+      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>12</v>
@@ -4141,17 +4286,17 @@
     </row>
     <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B71" s="4"/>
+        <v>456</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>12</v>
@@ -4162,10 +4307,11 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" t="s">
-        <v>189</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B72" s="1"/>
       <c r="C72" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4319,7 @@
         <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>12</v>
@@ -4184,16 +4330,17 @@
     </row>
     <row r="73" spans="1:9" hidden="1">
       <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
         <v>191</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" t="s">
-        <v>193</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>12</v>
@@ -4204,16 +4351,17 @@
     </row>
     <row r="74" spans="1:9" hidden="1">
       <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" t="s">
         <v>194</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" t="s">
-        <v>196</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>12</v>
@@ -4224,16 +4372,17 @@
     </row>
     <row r="75" spans="1:9" hidden="1">
       <c r="A75" t="s">
-        <v>566</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B75" s="1"/>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>12</v>
@@ -4244,127 +4393,129 @@
     </row>
     <row r="76" spans="1:9" hidden="1">
       <c r="A76" t="s">
-        <v>198</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B76" s="1"/>
       <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>200</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="H76" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A77" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="B77" s="29"/>
+      <c r="C77" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G76" t="s">
+      <c r="D77" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
-      <c r="A77" s="6" t="s">
+      <c r="E77" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6" t="s">
+      <c r="F77" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="D77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A78" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="B78" s="29"/>
+      <c r="C78" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1">
+      <c r="A79" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1">
-      <c r="A78" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>210</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79" t="s">
         <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" t="s">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B80" s="1"/>
       <c r="C80" t="s">
         <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" t="s">
-        <v>216</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" t="s">
         <v>56</v>
       </c>
@@ -4372,82 +4523,85 @@
         <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B82" s="1"/>
       <c r="C82" t="s">
         <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" t="s">
-        <v>221</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B83" s="1"/>
       <c r="C83" t="s">
         <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" t="s">
-        <v>223</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B84" s="1"/>
       <c r="C84" t="s">
         <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>18</v>
@@ -4455,92 +4609,95 @@
     </row>
     <row r="85" spans="1:8" hidden="1">
       <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" t="s">
+        <v>200</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1">
+      <c r="A86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
         <v>226</v>
       </c>
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F86" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G86" t="s">
         <v>227</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
         <v>228</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G85" t="s">
-        <v>202</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1">
-      <c r="A86" s="8" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" t="s">
-        <v>186</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" t="s">
         <v>230</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F87" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" t="s">
+        <v>227</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
         <v>231</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" t="s">
         <v>232</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1">
-      <c r="A87" t="s">
+      <c r="E88" t="s">
         <v>233</v>
       </c>
-      <c r="C87" t="s">
+      <c r="F88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" t="s">
         <v>234</v>
-      </c>
-      <c r="D87" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" t="s">
-        <v>235</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" t="s">
-        <v>232</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1">
-      <c r="A88" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" t="s">
-        <v>237</v>
-      </c>
-      <c r="E88" t="s">
-        <v>238</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G88" t="s">
-        <v>239</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>18</v>
@@ -4548,114 +4705,119 @@
     </row>
     <row r="89" spans="1:8" hidden="1">
       <c r="A89" t="s">
-        <v>240</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B89" s="1"/>
       <c r="C89" t="s">
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" t="s">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" t="s">
         <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" t="s">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B91" s="1"/>
       <c r="C91" t="s">
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" t="s">
-        <v>248</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B92" s="1"/>
       <c r="C92" t="s">
         <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" t="s">
-        <v>250</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B93" s="1"/>
       <c r="C93" t="s">
         <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
@@ -4663,22 +4825,23 @@
     </row>
     <row r="94" spans="1:8" hidden="1">
       <c r="A94" t="s">
-        <v>252</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>253</v>
+        <v>612</v>
       </c>
       <c r="E94" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>18</v>
@@ -4686,1509 +4849,1506 @@
     </row>
     <row r="95" spans="1:8" hidden="1">
       <c r="A95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" t="s">
+        <v>519</v>
+      </c>
+      <c r="E95" t="s">
+        <v>248</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G95" t="s">
+        <v>227</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" t="s">
+        <v>234</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A97" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" s="29"/>
+      <c r="H97" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1">
+      <c r="A98" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C95" t="s">
-        <v>186</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1">
+      <c r="A99" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1">
+      <c r="A100" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1">
+      <c r="A101" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1">
+      <c r="A102" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1">
+      <c r="A103" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1">
+      <c r="A104" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A105" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="29"/>
+      <c r="C105" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F105" s="29"/>
+      <c r="H105" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A106" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B106" s="29"/>
+      <c r="C106" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="F106" s="29"/>
+      <c r="H106" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A107" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" s="29"/>
+      <c r="C107" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F107" s="29"/>
+      <c r="H107" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A108" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" s="29"/>
+      <c r="C108" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" s="29"/>
+      <c r="H108" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A109" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F109" s="29"/>
+      <c r="H109" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A110" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F110" s="29"/>
+      <c r="H110" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A111" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="H111" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A112" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="29"/>
+      <c r="C112" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F112" s="29"/>
+      <c r="H112" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A113" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="B113" s="29"/>
+      <c r="C113" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="H113" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A114" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B114" s="29"/>
+      <c r="C114" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="H114" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A115" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B115" s="29"/>
+      <c r="C115" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F115" s="29"/>
+      <c r="H115" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A116" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F116" s="29"/>
+      <c r="H116" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A117" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B117" s="29"/>
+      <c r="C117" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F117" s="29"/>
+      <c r="H117" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="28" customFormat="1" hidden="1">
+      <c r="A118" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F118" s="29"/>
+      <c r="H118" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1">
+      <c r="A119" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+      <c r="A120" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A121" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F121" s="20"/>
+      <c r="H121" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A122" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="F122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1">
+      <c r="A123" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="8"/>
+      <c r="C123" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1">
+      <c r="A124" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124" s="8"/>
+      <c r="C124" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="E95" t="s">
-        <v>255</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G95" t="s">
-        <v>232</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1">
-      <c r="A96" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" t="s">
-        <v>257</v>
-      </c>
-      <c r="E96" t="s">
-        <v>258</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G96" t="s">
-        <v>239</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" hidden="1">
-      <c r="A97" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1">
-      <c r="A98" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1">
-      <c r="A99" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1">
-      <c r="A100" s="9" t="s">
+      <c r="E124" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1">
+      <c r="A125" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1">
+      <c r="A126" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1">
+      <c r="A127" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1">
+      <c r="A128" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1">
-      <c r="A101" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1">
-      <c r="A102" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1">
-      <c r="A103" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1">
-      <c r="A104" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1">
-      <c r="A105" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1">
-      <c r="A106" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1">
-      <c r="A107" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1">
-      <c r="A108" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1">
-      <c r="A109" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1">
-      <c r="A110" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1">
-      <c r="A111" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1">
-      <c r="A112" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1">
-      <c r="A113" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F113" s="7"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1">
-      <c r="A114" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F114" s="7"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" hidden="1">
-      <c r="A115" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1">
-      <c r="A116" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1">
-      <c r="A117" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1">
-      <c r="A118" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A121" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="F121" s="22"/>
-      <c r="H121" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A122" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D122" s="21" t="s">
+    </row>
+    <row r="129" spans="1:9" hidden="1">
+      <c r="A129" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1">
+      <c r="A130" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B130" s="8"/>
+      <c r="C130" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:9" hidden="1">
+      <c r="A131" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" hidden="1">
+      <c r="A132" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="1:9" hidden="1">
+      <c r="A133" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B133" s="8"/>
+      <c r="C133" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1">
+      <c r="A134" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1">
+      <c r="A135" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B135" s="8"/>
+      <c r="C135" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F135" s="8"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="1:9" hidden="1">
+      <c r="A136" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B136" s="8"/>
+      <c r="C136" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="1:9" hidden="1">
+      <c r="A137" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F137" s="8"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="1:9" hidden="1">
+      <c r="A138" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1">
+      <c r="A139" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="1:9" hidden="1">
+      <c r="A140" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="1:9" hidden="1">
+      <c r="A141" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B141" s="10"/>
+      <c r="C141" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1">
+      <c r="A142" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" s="24"/>
+      <c r="C142" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1">
+      <c r="A143" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" s="10"/>
+      <c r="C143" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A144" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="H144" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A145" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="H145" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A146" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F146" s="20"/>
+      <c r="H146" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A147" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="H147" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A148" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F148" s="20"/>
+      <c r="H148" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A149" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="H149" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A150" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="F150" s="20"/>
+      <c r="H150" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A151" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="F151" s="20"/>
+      <c r="H151" s="20"/>
+    </row>
+    <row r="152" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A152" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F152" s="20"/>
+      <c r="H152" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A153" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F153" s="20"/>
+      <c r="H153" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A154" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F154" s="20"/>
+      <c r="H154" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A155" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F155" s="20"/>
+      <c r="H155" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A156" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="F156" s="20"/>
+      <c r="H156" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A157" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B157" s="25"/>
+      <c r="C157" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="F157" s="20"/>
+      <c r="H157" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A158" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="F158" s="20"/>
+      <c r="H158" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="19" customFormat="1" hidden="1">
+      <c r="A159" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="E122" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="F122" s="22"/>
-      <c r="H122" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
-      <c r="A126" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
-      <c r="A127" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1">
-      <c r="A128" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
-      <c r="A129" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1">
-      <c r="A130" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130" s="9"/>
-    </row>
-    <row r="131" spans="1:9" hidden="1">
-      <c r="A131" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I131" s="9"/>
-    </row>
-    <row r="132" spans="1:9" hidden="1">
-      <c r="A132" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="F132" s="10"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="9"/>
-    </row>
-    <row r="133" spans="1:9" hidden="1">
-      <c r="A133" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F133" s="10"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
-      <c r="A134" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1">
-      <c r="A135" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="9"/>
-    </row>
-    <row r="136" spans="1:9" hidden="1">
-      <c r="A136" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="9"/>
-    </row>
-    <row r="137" spans="1:9" hidden="1">
-      <c r="A137" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="9"/>
-    </row>
-    <row r="138" spans="1:9" hidden="1">
-      <c r="A138" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1">
-      <c r="A139" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="9"/>
-    </row>
-    <row r="140" spans="1:9" hidden="1">
-      <c r="A140" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="F140" s="10"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I140" s="9"/>
-    </row>
-    <row r="141" spans="1:9" hidden="1">
-      <c r="A141" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D141" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="11" t="s">
+      <c r="E159" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F159" s="20"/>
+      <c r="H159" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
-      <c r="A142" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F142" s="12"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1">
-      <c r="A143" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F143" s="12"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A144" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="22"/>
-      <c r="H144" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A145" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="F145" s="22"/>
-      <c r="H145" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A146" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F146" s="22"/>
-      <c r="H146" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A147" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="F147" s="22"/>
-      <c r="H147" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A148" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="F148" s="22"/>
-      <c r="H148" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A149" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="F149" s="22"/>
-      <c r="H149" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A150" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="F150" s="22"/>
-      <c r="H150" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A151" s="21" t="s">
+    <row r="160" spans="1:9">
+      <c r="A160" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E151" s="21" t="s">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F151" s="22"/>
-      <c r="H151" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I151" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A152" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="E152" s="21" t="s">
+      <c r="E160" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F152" s="22"/>
-      <c r="H152" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I152" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A153" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="E153" s="21" t="s">
+      <c r="F160" s="8"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F153" s="22"/>
-      <c r="H153" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I153" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A154" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="E154" s="21" t="s">
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="F154" s="22"/>
-      <c r="H154" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I154" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A155" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="E155" s="21" t="s">
+      <c r="B161" s="10"/>
+      <c r="C161" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="F155" s="22"/>
-      <c r="H155" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I155" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A156" s="23" t="s">
+      <c r="F161" s="10"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E156" s="21" t="s">
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F156" s="22"/>
-      <c r="H156" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I156" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A157" s="21" t="s">
+      <c r="B162" s="10"/>
+      <c r="C162" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="F157" s="22"/>
-      <c r="H157" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="21" customFormat="1" hidden="1">
-      <c r="A158" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="F158" s="22"/>
-      <c r="H158" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158" s="21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1">
-      <c r="A159" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1">
-      <c r="A160" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E160" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="F160" s="12"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1">
-      <c r="A161" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="F161" s="12"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1">
-      <c r="A162" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="9"/>
@@ -6196,68 +6356,68 @@
         <v>18</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1">
-      <c r="A163" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F163" s="10"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1">
-      <c r="A164" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D164" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B163" s="8"/>
+      <c r="C163" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F163" s="8"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="E164" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F164" s="12"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1">
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B165" s="9"/>
+        <v>414</v>
+      </c>
+      <c r="B165" s="10"/>
       <c r="C165" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="9"/>
@@ -6265,137 +6425,137 @@
         <v>18</v>
       </c>
       <c r="I165" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B167" s="8"/>
+      <c r="C167" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F167" s="8"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B168" s="8"/>
+      <c r="C168" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F168" s="8"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B170" s="10"/>
+      <c r="C170" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="9" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1">
-      <c r="A166" s="9" t="s">
+      <c r="B171" s="10"/>
+      <c r="C171" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="F166" s="10"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1">
-      <c r="A167" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="F167" s="10"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I167" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1">
-      <c r="A168" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F168" s="12"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1">
-      <c r="A169" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F169" s="12"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1">
-      <c r="A170" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="F170" s="12"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1">
-      <c r="A171" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="9"/>
@@ -6403,592 +6563,636 @@
         <v>18</v>
       </c>
       <c r="I171" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F172" s="8"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B173" s="8"/>
+      <c r="C173" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F173" s="8"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>437</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" t="s">
+        <v>229</v>
+      </c>
+      <c r="D174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E174" t="s">
+        <v>438</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F175" s="8"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1">
-      <c r="A172" s="9" t="s">
+      <c r="F176" s="8"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E172" s="9" t="s">
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F172" s="10"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I172" s="9" t="s">
+      <c r="B177" s="8"/>
+      <c r="C177" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1">
-      <c r="A173" t="s">
+      <c r="E177" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F177" s="8"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1">
+      <c r="A178" t="s">
         <v>448</v>
       </c>
-      <c r="C173" t="s">
-        <v>234</v>
-      </c>
-      <c r="D173" t="s">
-        <v>66</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="B178" s="1"/>
+      <c r="C178" t="s">
+        <v>142</v>
+      </c>
+      <c r="D178" t="s">
         <v>449</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="E178" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1">
-      <c r="A174" s="9" t="s">
+      <c r="H178" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="F174" s="10"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1">
-      <c r="A175" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="F175" s="10"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I175" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1">
-      <c r="A176" s="9" t="s">
+    </row>
+    <row r="179" spans="1:9" hidden="1">
+      <c r="A179" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="F176" s="10"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1">
-      <c r="A177" t="s">
-        <v>459</v>
-      </c>
-      <c r="C177" t="s">
-        <v>144</v>
-      </c>
-      <c r="D177" t="s">
-        <v>460</v>
-      </c>
-      <c r="E177" t="s">
-        <v>461</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1">
-      <c r="A178" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B178" s="14"/>
-      <c r="C178" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G178" s="14"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="14"/>
-    </row>
-    <row r="179" spans="1:9" hidden="1">
-      <c r="A179" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="B179" s="14"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D179" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G179" s="14"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="14"/>
+      <c r="D179" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G179" s="12"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="12"/>
     </row>
     <row r="180" spans="1:9" hidden="1">
-      <c r="A180" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B180" s="14"/>
+      <c r="A180" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B180" s="13"/>
       <c r="C180" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D180" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="F180" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G180" s="14"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="14"/>
+      <c r="D180" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" s="12"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:9" hidden="1">
-      <c r="A181" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="B181" s="14"/>
+      <c r="A181" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B181" s="13"/>
       <c r="C181" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="F181" s="15"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="14"/>
+      <c r="D181" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G181" s="12"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9" hidden="1">
-      <c r="A182" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B182" s="14"/>
+      <c r="A182" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B182" s="13"/>
       <c r="C182" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F182" s="13"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" hidden="1">
+      <c r="A183" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B183" s="13"/>
+      <c r="C183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F183" s="13"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" hidden="1">
+      <c r="A184" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B184" s="13"/>
+      <c r="C184" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="F184" s="13"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" hidden="1">
+      <c r="A185" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B185" s="13">
+        <v>25</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F185" s="13"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B186" s="13"/>
+      <c r="C186" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D186" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="E182" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="F182" s="15"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="14"/>
-    </row>
-    <row r="183" spans="1:9" hidden="1">
-      <c r="A183" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="B183" s="14"/>
-      <c r="C183" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="F183" s="15"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="14"/>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="B184" s="14">
+      <c r="E186" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" hidden="1">
+      <c r="A187" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B187" s="13"/>
+      <c r="C187" t="s">
+        <v>142</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F187" s="13"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B188" s="13"/>
+      <c r="C188" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="E188" t="s">
+        <v>524</v>
+      </c>
+      <c r="F188" s="13"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" hidden="1">
+      <c r="A189" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B189" s="13"/>
+      <c r="C189" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="F189" s="13"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" hidden="1">
+      <c r="A190" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B190" s="13">
         <v>25</v>
       </c>
-      <c r="C184" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="E184" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="F184" s="15"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="14"/>
-    </row>
-    <row r="185" spans="1:9" hidden="1">
-      <c r="A185" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="E185" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="F185" s="15"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="14"/>
-    </row>
-    <row r="186" spans="1:9" hidden="1">
-      <c r="A186" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="B186" s="14"/>
-      <c r="C186" t="s">
-        <v>144</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="F186" s="15"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="14"/>
-    </row>
-    <row r="187" spans="1:9" hidden="1">
-      <c r="A187" s="14" t="s">
+      <c r="C190" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="E187" t="s">
-        <v>545</v>
-      </c>
-      <c r="F187" s="15"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="14"/>
-    </row>
-    <row r="188" spans="1:9" hidden="1">
-      <c r="A188" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14" t="s">
+      <c r="D190" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" hidden="1">
+      <c r="A191" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B191" s="13">
+        <v>25</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F191" s="13"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" hidden="1">
+      <c r="A192" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B192" s="13">
+        <v>25</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="F192" s="13"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" hidden="1">
+      <c r="A193" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="B193" s="13">
+        <v>25</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E193" t="s">
+        <v>548</v>
+      </c>
+      <c r="F193" s="13"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" hidden="1">
+      <c r="A194" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B194" s="13"/>
+      <c r="C194" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="F194" s="13"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" hidden="1">
+      <c r="A195" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="B195" s="13"/>
+      <c r="C195" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F195" s="13"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" hidden="1">
+      <c r="A196" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="E188" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="F188" s="15"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="14"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="B189" s="14">
-        <v>25</v>
-      </c>
-      <c r="C189" s="14" t="s">
+      <c r="B196" s="13"/>
+      <c r="C196" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E196" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="D189" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E189" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="F189" s="15"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="14"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B190" s="14">
-        <v>25</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D190" s="14" t="s">
+      <c r="F196" s="13"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" hidden="1">
+      <c r="A197" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B197" s="13"/>
+      <c r="C197" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D197" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="F197" s="13"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" hidden="1">
+      <c r="A198" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="F198" s="13"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" hidden="1">
+      <c r="A199" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F199" s="13"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" hidden="1">
+      <c r="A200" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="E190" s="14" t="s">
+      <c r="B200" s="13"/>
+      <c r="C200" t="s">
+        <v>142</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="F190" s="15"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="14"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="B191" s="14">
-        <v>25</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="E191" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="F191" s="15"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="14"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="B192" s="14">
-        <v>25</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="E192" t="s">
-        <v>571</v>
-      </c>
-      <c r="F192" s="15"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="14"/>
-    </row>
-    <row r="193" spans="1:9" hidden="1">
-      <c r="A193" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="B193" s="14"/>
-      <c r="C193" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D193" s="14" t="s">
+      <c r="F200" s="13"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" hidden="1">
+      <c r="A201" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B201" s="13"/>
+      <c r="C201" t="s">
+        <v>142</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="E201" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="E193" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="F193" s="15"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="15"/>
-      <c r="I193" s="14"/>
-    </row>
-    <row r="194" spans="1:9" hidden="1">
-      <c r="A194" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="B194" s="14"/>
-      <c r="C194" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="E194" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="F194" s="15"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="14"/>
-    </row>
-    <row r="195" spans="1:9" hidden="1">
-      <c r="A195" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="B195" s="14"/>
-      <c r="C195" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="E195" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="F195" s="15"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="14"/>
-    </row>
-    <row r="196" spans="1:9" hidden="1">
-      <c r="A196" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="B196" s="14"/>
-      <c r="C196" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D196" s="24">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E196" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="F196" s="15"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="14"/>
-    </row>
-    <row r="197" spans="1:9" hidden="1">
-      <c r="A197" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="B197" s="14"/>
-      <c r="C197" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="F197" s="15"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="14"/>
-    </row>
-    <row r="198" spans="1:9" hidden="1">
-      <c r="A198" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="B198" s="14"/>
-      <c r="C198" s="14" t="s">
+      <c r="F201" s="13"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" hidden="1">
+      <c r="A202" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="D198" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E198" s="14" t="s">
+      <c r="B202" s="13"/>
+      <c r="C202" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D202" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="F198" s="15"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="14"/>
-    </row>
-    <row r="199" spans="1:9" hidden="1">
-      <c r="A199" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="B199" s="14"/>
-      <c r="C199" t="s">
-        <v>144</v>
-      </c>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="F199" s="15"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="14"/>
-    </row>
-    <row r="200" spans="1:9" hidden="1">
-      <c r="A200" s="14" t="s">
-        <v>608</v>
-      </c>
-      <c r="B200" s="14"/>
-      <c r="C200" t="s">
-        <v>144</v>
-      </c>
-      <c r="D200" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="E200" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="F200" s="15"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="14"/>
+      <c r="E202" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="F202" s="13"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F202">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G202">
       <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H200">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H202">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7002,10 +7206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7017,79 +7221,95 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" ht="18.75">
-      <c r="A4" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>511</v>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>514</v>
+      <c r="A5" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27">
-      <c r="A10" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>512</v>
+      <c r="A6" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7098,20 +7318,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -11,14 +11,14 @@
     <sheet name="组员负责模块分配" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$E$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$A$1:$E$205</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="637">
   <si>
     <t>文件名</t>
   </si>
@@ -44,9 +44,6 @@
     <t>备注说明</t>
   </si>
   <si>
-    <t>exportSmtOrders.sh</t>
-  </si>
-  <si>
     <t>aliexpress</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>线上eub物流获取跟踪号</t>
   </si>
   <si>
-    <t>auto_upload_order_to_eub_offline.php</t>
-  </si>
-  <si>
     <t>线下eub物流获取跟踪号</t>
   </si>
   <si>
@@ -1441,10 +1435,6 @@
   </si>
   <si>
     <t>autoUploadYwGetCode.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoExportSmtOrders.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1938,10 +1928,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NoPutInStorage.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CountMargin.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2011,10 +1997,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoSendProcurementToEmail.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>早上7点25分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2065,6 +2047,74 @@
   </si>
   <si>
     <t>AutoMatchingWarehouse1.php 这个旧的废弃，新的：/auto/AutoMatchingWarehouse_new.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_upload_ubi.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个小时2次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取ubi订单追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卿孝平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_check_backorder.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常欠货订单脚本（订单是欠货，但是2个仓库至少一个仓库有货）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点05分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_upload_order_to_eub_offline.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoPutInStorage.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendProcurementToEmail.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportSmtOrders.sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoExportSmtOrders.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_sendMailForWish.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上9点01分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天前没有上传跟踪号的wish订单发送邮件通知</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2320,14 +2370,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I202" totalsRowShown="0">
-  <autoFilter ref="A1:I202">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="所有"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I205" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="文件名"/>
     <tableColumn id="9" name="系统" dataDxfId="0"/>
@@ -2630,10 +2673,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2654,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2678,4178 +2723,4178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>632</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1">
-      <c r="A9" t="s">
-        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1">
-      <c r="A10" t="s">
-        <v>28</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
-      <c r="A12" t="s">
-        <v>34</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1">
-      <c r="A13" t="s">
-        <v>37</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1">
-      <c r="A14" t="s">
-        <v>40</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1">
-      <c r="A15" t="s">
-        <v>43</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
-      <c r="A16" t="s">
-        <v>46</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1">
-      <c r="A17" t="s">
-        <v>49</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>542</v>
+      </c>
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
-        <v>545</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1">
-      <c r="A22" t="s">
-        <v>60</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="27" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B23" s="1">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>604</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>608</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1">
-      <c r="A24" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1">
-      <c r="A25" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>595</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1">
-      <c r="A27" t="s">
-        <v>72</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>74</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1">
-      <c r="A28" t="s">
-        <v>75</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1">
-      <c r="A29" t="s">
-        <v>78</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
         <v>79</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>80</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1">
-      <c r="A30" t="s">
-        <v>81</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1">
-      <c r="A31" t="s">
-        <v>84</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>86</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1">
-      <c r="A32" t="s">
-        <v>87</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>91</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1">
-      <c r="A33" t="s">
-        <v>92</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
       <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
         <v>93</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1">
-      <c r="A34" t="s">
-        <v>94</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
       <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
         <v>95</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1">
-      <c r="A35" t="s">
-        <v>96</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
         <v>97</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
         <v>98</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1">
-      <c r="A36" t="s">
-        <v>99</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
         <v>100</v>
       </c>
-      <c r="E36" t="s">
-        <v>101</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>104</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
         <v>105</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
         <v>106</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1">
-      <c r="A39" t="s">
-        <v>107</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
         <v>108</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
         <v>109</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1">
-      <c r="A40" t="s">
-        <v>110</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
         <v>112</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1">
-      <c r="A42" t="s">
-        <v>113</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
         <v>114</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
         <v>115</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1">
-      <c r="A43" t="s">
-        <v>116</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
         <v>117</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>118</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>119</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1">
-      <c r="A44" t="s">
-        <v>120</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
         <v>121</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
         <v>122</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1">
-      <c r="A45" t="s">
-        <v>123</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
         <v>124</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1">
-      <c r="A46" t="s">
-        <v>125</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1">
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>127</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1">
-      <c r="A48" t="s">
-        <v>128</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
         <v>129</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>130</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1">
-      <c r="A49" t="s">
-        <v>131</v>
       </c>
       <c r="B49" s="1">
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
         <v>132</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
         <v>133</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1">
-      <c r="A50" t="s">
-        <v>134</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
         <v>135</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
         <v>136</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1">
-      <c r="A51" t="s">
-        <v>137</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
         <v>138</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1">
-      <c r="A52" t="s">
-        <v>139</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" t="s">
         <v>140</v>
       </c>
-      <c r="E52" t="s">
-        <v>141</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>143</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
         <v>144</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1">
-      <c r="A54" t="s">
-        <v>145</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>628</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
         <v>152</v>
-      </c>
-      <c r="E57" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1">
-      <c r="A58" t="s">
-        <v>154</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
         <v>157</v>
-      </c>
-      <c r="E59" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1">
-      <c r="A60" t="s">
-        <v>159</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
         <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>165</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1">
-      <c r="A63" t="s">
-        <v>166</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
         <v>173</v>
-      </c>
-      <c r="E66" t="s">
-        <v>174</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1">
-      <c r="A67" t="s">
-        <v>175</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="F71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
         <v>190</v>
-      </c>
-      <c r="E73" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1">
-      <c r="A74" t="s">
-        <v>192</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" t="s">
-        <v>200</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="28" customFormat="1">
       <c r="A77" s="28" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="F77" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="28" customFormat="1" hidden="1">
+    </row>
+    <row r="78" spans="1:9" s="28" customFormat="1">
       <c r="A78" s="28" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D78" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E78" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79" t="s">
+        <v>198</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
         <v>206</v>
-      </c>
-      <c r="E79" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G79" t="s">
-        <v>200</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1">
-      <c r="A80" t="s">
-        <v>208</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
         <v>209</v>
-      </c>
-      <c r="E80" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G80" t="s">
-        <v>200</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1">
-      <c r="A81" t="s">
-        <v>211</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" t="s">
+        <v>198</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
         <v>214</v>
-      </c>
-      <c r="E82" t="s">
-        <v>215</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G82" t="s">
-        <v>200</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1">
-      <c r="A83" t="s">
-        <v>216</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G83" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
         <v>219</v>
-      </c>
-      <c r="E84" t="s">
-        <v>220</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" t="s">
-        <v>200</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1">
-      <c r="A85" t="s">
-        <v>221</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="E85" t="s">
-        <v>223</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" t="s">
-        <v>200</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1">
-      <c r="A86" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G86" t="s">
         <v>225</v>
       </c>
-      <c r="E86" t="s">
-        <v>226</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G86" t="s">
-        <v>227</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G87" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D88" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" t="s">
         <v>232</v>
       </c>
-      <c r="E88" t="s">
+      <c r="H88" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
         <v>233</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" t="s">
-        <v>234</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1">
-      <c r="A89" t="s">
-        <v>235</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
         <v>236</v>
-      </c>
-      <c r="E89" t="s">
-        <v>237</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G89" t="s">
-        <v>200</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1">
-      <c r="A90" t="s">
-        <v>238</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
         <v>241</v>
-      </c>
-      <c r="E91" t="s">
-        <v>242</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G91" t="s">
-        <v>200</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1">
-      <c r="A92" t="s">
-        <v>243</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G93" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E94" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G95" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" t="s">
+        <v>249</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" t="s">
+        <v>232</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="28" customFormat="1">
+      <c r="A97" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="E96" t="s">
-        <v>251</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G96" t="s">
-        <v>234</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="28" customFormat="1" hidden="1">
-      <c r="A97" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F97" s="29"/>
       <c r="H97" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="7"/>
       <c r="H98" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="7"/>
       <c r="H99" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="7"/>
       <c r="H100" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="9"/>
       <c r="H101" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
       <c r="H102" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="7"/>
       <c r="H104" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="28" customFormat="1">
       <c r="A105" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B105" s="29"/>
       <c r="C105" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F105" s="29"/>
       <c r="H105" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="28" customFormat="1">
       <c r="A106" s="28" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F106" s="29"/>
       <c r="H106" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="28" customFormat="1">
       <c r="A107" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B107" s="29"/>
       <c r="C107" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F107" s="29"/>
       <c r="H107" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="28" customFormat="1">
       <c r="A108" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F108" s="29"/>
       <c r="H108" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I108" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="28" customFormat="1">
       <c r="A109" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F109" s="29"/>
       <c r="H109" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="28" customFormat="1">
       <c r="A110" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F110" s="29"/>
       <c r="H110" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I110" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="28" customFormat="1">
       <c r="A111" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B111" s="29"/>
       <c r="C111" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F111" s="29"/>
       <c r="H111" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I111" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="28" customFormat="1">
       <c r="A112" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B112" s="29"/>
       <c r="C112" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F112" s="29"/>
       <c r="H112" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="28" customFormat="1">
       <c r="A113" s="28" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B113" s="29"/>
       <c r="C113" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F113" s="29"/>
       <c r="H113" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="28" customFormat="1">
       <c r="A114" s="28" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F114" s="29"/>
       <c r="H114" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="28" customFormat="1">
       <c r="A115" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B115" s="29"/>
       <c r="C115" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F115" s="29"/>
       <c r="H115" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="28" customFormat="1">
       <c r="A116" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B116" s="29"/>
       <c r="C116" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F116" s="29"/>
       <c r="H116" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="28" customFormat="1">
       <c r="A117" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B117" s="29"/>
       <c r="C117" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F117" s="29"/>
       <c r="H117" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="28" customFormat="1" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="28" customFormat="1">
       <c r="A118" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B118" s="29"/>
       <c r="C118" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F118" s="29"/>
       <c r="H118" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="7"/>
       <c r="H119" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="13.5" customHeight="1">
       <c r="A120" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="7"/>
       <c r="H120" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="19" customFormat="1">
       <c r="A121" s="19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F121" s="20"/>
       <c r="H121" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="19" customFormat="1">
       <c r="A122" s="19" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F122" s="20"/>
       <c r="H122" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I122" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="7"/>
       <c r="H123" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="7"/>
       <c r="H124" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="7"/>
       <c r="H125" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="7"/>
       <c r="H126" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="9"/>
       <c r="H127" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="9"/>
       <c r="H128" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="9"/>
       <c r="H129" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="7"/>
       <c r="H130" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="7"/>
       <c r="H131" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="7"/>
       <c r="H132" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="7"/>
       <c r="H133" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F134" s="8"/>
       <c r="G134" s="7"/>
       <c r="H134" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="7"/>
       <c r="H135" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I135" s="7"/>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="7"/>
       <c r="H136" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I136" s="7"/>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9">
       <c r="A137" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F137" s="8"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I137" s="7"/>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9">
       <c r="A138" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F138" s="8"/>
       <c r="G138" s="7"/>
       <c r="H138" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F139" s="8"/>
       <c r="G139" s="7"/>
       <c r="H139" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="7"/>
       <c r="H140" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I140" s="7"/>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
       <c r="H141" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B142" s="24"/>
       <c r="C142" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="9"/>
       <c r="H142" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="9"/>
       <c r="H143" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="19" customFormat="1">
       <c r="A144" s="19" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="F144" s="20"/>
       <c r="H144" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="19" customFormat="1">
       <c r="A145" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F145" s="20"/>
       <c r="H145" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="19" customFormat="1">
       <c r="A146" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F146" s="20"/>
       <c r="H146" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="19" customFormat="1">
       <c r="A147" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F147" s="20"/>
       <c r="H147" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="19" customFormat="1">
       <c r="A148" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F148" s="20"/>
       <c r="H148" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="19" customFormat="1">
       <c r="A149" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F149" s="20"/>
       <c r="H149" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="19" customFormat="1">
       <c r="A150" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F150" s="20"/>
       <c r="H150" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="19" customFormat="1">
       <c r="A151" s="19" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F151" s="20"/>
       <c r="H151" s="20"/>
     </row>
-    <row r="152" spans="1:9" s="19" customFormat="1" hidden="1">
+    <row r="152" spans="1:9" s="19" customFormat="1">
       <c r="A152" s="19" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F152" s="20"/>
       <c r="H152" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="19" customFormat="1">
       <c r="A153" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F153" s="20"/>
       <c r="H153" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="19" customFormat="1">
       <c r="A154" s="19" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I154" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="19" customFormat="1">
       <c r="A155" s="19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="19" customFormat="1">
       <c r="A156" s="19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F156" s="20"/>
       <c r="H156" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="19" customFormat="1">
       <c r="A157" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B157" s="25"/>
       <c r="C157" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I157" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="19" customFormat="1">
       <c r="A158" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F158" s="20"/>
       <c r="H158" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I158" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="19" customFormat="1" hidden="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="19" customFormat="1">
       <c r="A159" s="19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F159" s="20"/>
       <c r="H159" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I159" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F160" s="8"/>
       <c r="G160" s="7"/>
       <c r="H160" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="9"/>
       <c r="H161" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="9"/>
       <c r="H162" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F163" s="8"/>
       <c r="G163" s="7"/>
       <c r="H163" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="7"/>
       <c r="H164" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="9"/>
       <c r="H165" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F166" s="8"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F167" s="8"/>
       <c r="G167" s="7"/>
       <c r="H167" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F168" s="8"/>
       <c r="G168" s="7"/>
       <c r="H168" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="9"/>
       <c r="H169" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
       <c r="H170" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="9"/>
       <c r="H171" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F172" s="8"/>
       <c r="G172" s="7"/>
       <c r="H172" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F173" s="8"/>
       <c r="G173" s="7"/>
       <c r="H173" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E174" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F175" s="8"/>
       <c r="G175" s="7"/>
       <c r="H175" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F176" s="8"/>
       <c r="G176" s="7"/>
       <c r="H176" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F177" s="8"/>
       <c r="G177" s="7"/>
       <c r="H177" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D178" t="s">
+        <v>447</v>
+      </c>
+      <c r="E178" t="s">
+        <v>448</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E178" t="s">
-        <v>450</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1">
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="13"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="13"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="13"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F182" s="13"/>
       <c r="G182" s="12"/>
       <c r="H182" s="13"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F183" s="13"/>
       <c r="G183" s="12"/>
       <c r="H183" s="13"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="12" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B184" s="13"/>
       <c r="C184" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F184" s="13"/>
       <c r="G184" s="12"/>
       <c r="H184" s="13"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B185" s="13">
         <v>25</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F185" s="13"/>
       <c r="G185" s="12"/>
@@ -6858,36 +6903,36 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="12"/>
       <c r="H186" s="13"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B187" s="13"/>
       <c r="C187" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F187" s="13"/>
       <c r="G187" s="12"/>
@@ -6896,303 +6941,359 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B188" s="13"/>
       <c r="C188" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E188" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="12"/>
       <c r="H188" s="13"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B189" s="13"/>
       <c r="C189" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="12"/>
       <c r="H189" s="13"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" s="26" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B190" s="13">
         <v>25</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F190" s="13"/>
       <c r="G190" s="12"/>
       <c r="H190" s="13"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="26" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B191" s="13">
         <v>25</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F191" s="13"/>
       <c r="G191" s="12"/>
       <c r="H191" s="13"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="26" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B192" s="13">
         <v>25</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F192" s="13"/>
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" s="26" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B193" s="13">
         <v>25</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E193" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F193" s="13"/>
       <c r="G193" s="12"/>
       <c r="H193" s="13"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" s="12" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B194" s="13"/>
       <c r="C194" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F194" s="13"/>
       <c r="G194" s="12"/>
       <c r="H194" s="13"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B195" s="13"/>
       <c r="C195" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="12"/>
       <c r="H195" s="13"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B196" s="13"/>
       <c r="C196" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F196" s="13"/>
       <c r="G196" s="12"/>
       <c r="H196" s="13"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9">
       <c r="A197" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B197" s="13"/>
       <c r="C197" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D197" s="22">
         <v>0.77083333333333337</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F197" s="13"/>
       <c r="G197" s="12"/>
       <c r="H197" s="13"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9">
       <c r="A198" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B198" s="13"/>
       <c r="C198" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="12"/>
       <c r="H198" s="13"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B199" s="13"/>
       <c r="C199" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F199" s="13"/>
       <c r="G199" s="12"/>
       <c r="H199" s="13"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9">
       <c r="A200" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B200" s="13"/>
       <c r="C200" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F200" s="13"/>
       <c r="G200" s="12"/>
       <c r="H200" s="13"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9">
       <c r="A201" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B201" s="13"/>
       <c r="C201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F201" s="13"/>
       <c r="G201" s="12"/>
       <c r="H201" s="13"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9">
       <c r="A202" s="26" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B202" s="13"/>
       <c r="C202" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F202" s="13"/>
       <c r="G202" s="12"/>
       <c r="H202" s="13"/>
       <c r="I202" s="12"/>
     </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B203" s="13"/>
+      <c r="C203" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="F203" s="13"/>
+      <c r="G203" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="H203" s="13"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="F204" s="13"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F205" s="13"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F202">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F205">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G202">
-      <formula1>"郭欧,李利峰,何建成,李达标,常安堤,游佳,马超,姜笛,卞海伟"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H202">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H205">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7209,7 +7310,7 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -7222,7 +7323,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="22.5" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -7232,84 +7333,84 @@
     </row>
     <row r="4" spans="1:2" ht="29.25" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.5" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.5" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.75" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/work_documents/Slme定时任务功能列表20161017.xlsx
+++ b/work_documents/Slme定时任务功能列表20161017.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7605" tabRatio="489" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7605" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="系统定时任务列表" sheetId="1" r:id="rId1"/>
     <sheet name="组员负责模块分配" sheetId="2" r:id="rId2"/>
     <sheet name="读取从库" sheetId="3" r:id="rId3"/>
     <sheet name="常用脚本" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="财务系统模块任务分配" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">系统定时任务列表!$C$211:$F$214</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="860">
   <si>
     <t>文件名</t>
   </si>
@@ -133,9 +135,6 @@
     <t>早上3点55</t>
   </si>
   <si>
-    <t>automaticMessageAfterShipments.php</t>
-  </si>
-  <si>
     <t>晚上23点</t>
   </si>
   <si>
@@ -367,18 +366,9 @@
     <t>每1个小时</t>
   </si>
   <si>
-    <t>根据账号，wish抓单</t>
-  </si>
-  <si>
-    <t>wishMarkShippingData.php</t>
-  </si>
-  <si>
     <t>根据账号，wish标记发货</t>
   </si>
   <si>
-    <t>wishMarkToShip.script.php</t>
-  </si>
-  <si>
     <t>wishModifyTrackNumber.php</t>
   </si>
   <si>
@@ -463,9 +453,6 @@
     <t>coe物流下单</t>
   </si>
   <si>
-    <t>admin/auto/auto_assigned_tracking_number</t>
-  </si>
-  <si>
     <t>每25分钟</t>
   </si>
   <si>
@@ -541,9 +528,6 @@
     <t>每4分钟</t>
   </si>
   <si>
-    <t>ebay抓单</t>
-  </si>
-  <si>
     <t>采购</t>
   </si>
   <si>
@@ -553,12 +537,6 @@
     <t>获取alibaba订单跟踪号到erp系统</t>
   </si>
   <si>
-    <t>autoMatchOrdersPaypal.php</t>
-  </si>
-  <si>
-    <t>匹配订单paypal</t>
-  </si>
-  <si>
     <t>auto_lazada_inactive.php</t>
   </si>
   <si>
@@ -712,12 +690,6 @@
     <t>标记case为return case</t>
   </si>
   <si>
-    <t>procurement_no_delivered.php</t>
-  </si>
-  <si>
-    <t>下单7天未到货采购单</t>
-  </si>
-  <si>
     <t>admin/auto/auto_may_blacklist</t>
   </si>
   <si>
@@ -745,9 +717,6 @@
     <t>这个具体功能是？</t>
   </si>
   <si>
-    <t>autoSaveShipingMessageOrder.php</t>
-  </si>
-  <si>
     <t>保存当天发货的订单信息到临时表(自动给平台订单添加留言)</t>
   </si>
   <si>
@@ -811,24 +780,15 @@
     <t>初始化一次amazon所有账号同步时间</t>
   </si>
   <si>
-    <t>autoCheckAmzOrderStatus.php</t>
-  </si>
-  <si>
     <t>监测amazon订单状态</t>
   </si>
   <si>
-    <t>autoGetAmzFBAStock.php</t>
-  </si>
-  <si>
     <t>06,12,15点45分</t>
   </si>
   <si>
     <t>同步amazon fba库存</t>
   </si>
   <si>
-    <t>autoGetAmzFBASellerSKU.php</t>
-  </si>
-  <si>
     <t>每天晚上20点</t>
   </si>
   <si>
@@ -844,9 +804,6 @@
     <t>请求生成报告，供业务人员下载</t>
   </si>
   <si>
-    <t>autoGetOnlineItemsReport.php</t>
-  </si>
-  <si>
     <t>同步amazon站点sku库存价格</t>
   </si>
   <si>
@@ -868,9 +825,6 @@
     <t>autoRequestOnlineItems.php</t>
   </si>
   <si>
-    <t>stockUpdate.php</t>
-  </si>
-  <si>
     <t>更新amazon在售产品的库存</t>
   </si>
   <si>
@@ -1319,10 +1273,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoSellerSmtShipMent.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>autoCountProductsData.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1453,10 +1403,6 @@
   <si>
     <t>amazon</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IT部人员日常工作分配</t>
@@ -1797,10 +1743,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoGetOnlineItemsReport.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_upload_order_to_shuncheng_bpost.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1881,18 +1823,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>amzListOrders.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>amazon账号订单详情同步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>amzListOrderItems.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>amazon账号订单标记发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1949,14 +1883,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NoPutInStorage.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoExportSmtOrders.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_sendMailForWish.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2023,10 +1949,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>autoSellerShipmentNewThread.sh(autoSellerShipmentNewThread.php)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>autoMarkShipmentByDate.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2280,10 +2202,6 @@
   </si>
   <si>
     <t>autoExportMessageContentRun.php action=autoExportMessageContent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoSkuSalesIncreased.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2343,10 +2261,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>amzSubmitFeedNew.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>张伟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2372,10 +2286,6 @@
   </si>
   <si>
     <t>每1个小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/auto/auto_zilingo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2441,10 +2351,6 @@
   <si>
     <t>ebay平台相关（抓单，在线数量监控，message,case等)；
 物流api对接；订单相关；cd平台,lazada</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>joom_download_order.php</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2528,10 +2434,614 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>检查一个wish账号订单总金额跟放款的是否一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay抓单（抓取最近3天的订单）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据账号，wish抓单（抓取5天前到现在的订单）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/check_accounts_orders_time.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定账号的最早订单时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_duplicate_order_totals_joom.php</t>
+  </si>
+  <si>
+    <t>update_duplicate_order_totals.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复手动拆单金额问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复joom订单由于运费导致总金额问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtAPI/autoExportSmtOrders.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘顺利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络管理维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘聪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理，负责业务部门的需求分析整理，产品文档撰写，系统流程优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关云翼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>php开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>/check_orders_amount.php</t>
-  </si>
-  <si>
-    <t>检查一个wish账号订单总金额跟放款的是否一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default\controllers\admin\auto\auto_shopee_getProduct.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopee/autoSetShopeeSkuStockZero.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopee/autoSetShopeeSkuStockUp.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppee库存自动调整脚本</t>
+  </si>
+  <si>
+    <t>shoppee库存自动调0脚本</t>
+  </si>
+  <si>
+    <t>11点，18点，22点</t>
+  </si>
+  <si>
+    <t>11点，18点，22点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6点， 13点，18点</t>
+  </si>
+  <si>
+    <t>admin/auto/auto_zilingo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单7天未到货采购单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procurement_no_delivered.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_mark_walmart_order.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walmart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walmart标记发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_joom_get_advertising.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joom在线数量监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_mass_paypal.php</t>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal定时自动转款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSaveShipingMessageOrder.php（废弃）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automaticMessageAfterShipments.php（废弃）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_priceminister getOrders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceminister</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceminister抓单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_priceminister uploadShippingCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceminister标记发货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取shoppee产品脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppee抓单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时45分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGetAmzFBAStock.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default\controllers\admin\auto\auto_shopee.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGetAmzFBASellerSKU.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭欧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许庆辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭自峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分体系、年、月统计sku销量
+2.销量统计准确后（根据数量、金额验证），根据体系内或者体系外账号，删除订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.根据销售订单数量，推出采购单
+   3.1删除采购单中不在销售订单中的sku;      modifyPurchaseOrderExtraSkuInPart2.php
+   3.2根据销售数据推采购单数量              modifyPurchaseOrderNumberByPart2SalesNumber.php
+   3.3前面2个步骤搞完，并且确定准确后，根据体系外的采购数据，生成体系内的数据 modifyPurchaseOrderBySystemPart2.php
+   3.4统计采购单中每个sku的采购数量  /stat_sku_purchase_number_by_purchase_order.php</t>
+  </si>
+  <si>
+    <t>4.根据采购单sku统计sku采购量、采购金额、销量、销量金额，为导出进销存提供基础数据。  stat_sku_info_by_purchase_order.php
+4.1导出进销存数据   export_sku_info_by_purchase_order.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.根据初始库存往后推全年数据        /cal_sku__stock_by_month_push_up.php
+6.分月统计库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表数据导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助他们整理逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号18点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号22点（搞完后第二天检查半天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号23点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号8点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号10点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号22点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/www/slme/index.php admin/auto/auto_shopee_getsls_number/get_shopee_service_code 701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时的0，30分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取sls面单的service_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/www/slme/index.php admin/auto/auto_shopee_getsls_number/shopeegettrackingNo 738</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取sls追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_split_wish_order.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish自动拆单脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_assigned_tracking_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoPutInStorage.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配订单paypal,更新paypal费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSellerShipmentNewThread.sh(autoSellerShipmentNewThread.php)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSellerSmtShipMent.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_pandao getOrdersList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandao抓单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walmart/auto_walmart_productStatistics.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walmart最近30天的sku销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_pandao uploadShippingCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandao获取跟踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auto_upload_sal_ael.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wadi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时第10分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wadi平台订单获取追踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_dhgate/autoUpdateAccessTokenToGetOrders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhgate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhgate抓单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时第0分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_dhgate/autoUpdateAccessTokenToUpLoadShippingCode</t>
+  </si>
+  <si>
+    <t>dhgate获取跟踪号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2小时第11分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量暴跌SKU报警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSkuSalesDecreased.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29.68.126</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境1.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29.56.240</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本服务器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoMatchOrdersPaypal.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzListOrders.php（废弃）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzListOrderItems.php（废弃）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amzSubmitFeedNew.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoModifyEbayPaypal.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal侵权后替换为另一个paypal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkuStatistics.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计7天，14天，30天销量（统计sku每天销量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joom_download_order.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20天内生成两次以上捡货单中的订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoOrdersAbnormalEmailNotify.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish账号近四天销售额和订单数汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoSendWishData.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joom重单订单邮件推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_joom_repeat_mail.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_order_problem_count.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题订单定时统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishMarkShippingData.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wishMarkToShip.script.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoCheckAmzOrderStatus.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGetOnlineItemsReport.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoGetOnlineItemsReport.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockUpdate.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSendEmailForReceive.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外仓到货清单列表(海外仓最新到货清单列表)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_wadi/getOrders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wadi抓单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backorderReport.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货报告统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/auto/auto_jumia/getOrders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumia抓单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2539,7 +3049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2593,8 +3103,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2667,6 +3185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2728,7 +3252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2846,6 +3370,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,11 +3414,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J233" totalsRowShown="0">
-  <autoFilter ref="A1:J233">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J262" totalsRowShown="0">
+  <autoFilter ref="A1:J262">
     <filterColumn colId="3">
       <filters>
-        <filter val="wish"/>
+        <filter val="aliexpress"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3177,19 +3725,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="64.25" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="91.5" bestFit="1" customWidth="1"/>
@@ -3204,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -3231,9 +3777,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -3255,16 +3801,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>716</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>10</v>
@@ -3279,9 +3825,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -3303,21 +3849,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>798</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -3339,9 +3885,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>799</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
@@ -3363,19 +3909,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -3387,7 +3933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3411,9 +3957,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -3423,7 +3969,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -3435,9 +3981,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -3445,17 +3991,17 @@
         <v>8</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3479,7 +4025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3503,9 +4049,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
@@ -3527,7 +4073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3551,9 +4097,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -3561,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -3576,23 +4122,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="32" customFormat="1" hidden="1">
+    <row r="17" spans="1:9" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="32" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -3600,10 +4146,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -3617,17 +4163,17 @@
     </row>
     <row r="19" spans="1:9" hidden="1">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
@@ -3641,17 +4187,17 @@
     </row>
     <row r="20" spans="1:9" hidden="1">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
         <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>11</v>
@@ -3665,17 +4211,17 @@
     </row>
     <row r="21" spans="1:9" hidden="1">
       <c r="A21" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F21" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>514</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>11</v>
@@ -3689,17 +4235,17 @@
     </row>
     <row r="22" spans="1:9" hidden="1">
       <c r="A22" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -3713,17 +4259,17 @@
     </row>
     <row r="23" spans="1:9" hidden="1">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
         <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
@@ -3737,17 +4283,17 @@
     </row>
     <row r="24" spans="1:9" hidden="1">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -3761,17 +4307,17 @@
     </row>
     <row r="25" spans="1:9" hidden="1">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
         <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -3785,17 +4331,17 @@
     </row>
     <row r="26" spans="1:9" hidden="1">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
         <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
@@ -3809,17 +4355,17 @@
     </row>
     <row r="27" spans="1:9" hidden="1">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
         <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
@@ -3833,17 +4379,17 @@
     </row>
     <row r="28" spans="1:9" hidden="1">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
         <v>79</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -3857,23 +4403,23 @@
     </row>
     <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
-        <v>714</v>
+        <v>833</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
         <v>81</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>82</v>
-      </c>
-      <c r="F29" t="s">
-        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>17</v>
@@ -3881,23 +4427,23 @@
     </row>
     <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="E30" t="s">
-        <v>82</v>
-      </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>17</v>
@@ -3905,23 +4451,23 @@
     </row>
     <row r="31" spans="1:9" hidden="1">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>17</v>
@@ -3929,23 +4475,23 @@
     </row>
     <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>17</v>
@@ -3953,23 +4499,23 @@
     </row>
     <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
         <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -3977,23 +4523,23 @@
     </row>
     <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>670</v>
+      </c>
+      <c r="F34" t="s">
         <v>95</v>
-      </c>
-      <c r="E34" t="s">
-        <v>696</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>13</v>
@@ -4001,23 +4547,23 @@
     </row>
     <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
         <v>98</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -4025,23 +4571,23 @@
     </row>
     <row r="36" spans="1:9" hidden="1">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
         <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>102</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -4049,23 +4595,23 @@
     </row>
     <row r="37" spans="1:9" hidden="1">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
@@ -4073,23 +4619,23 @@
     </row>
     <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -4097,17 +4643,17 @@
     </row>
     <row r="39" spans="1:9" hidden="1">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
         <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
@@ -4119,19 +4665,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -4143,19 +4689,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>709</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>11</v>
@@ -4167,19 +4713,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>844</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
@@ -4191,19 +4737,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>845</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -4215,21 +4761,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1">
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
@@ -4241,19 +4787,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
@@ -4265,21 +4811,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="C46" s="1">
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -4291,19 +4837,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -4315,19 +4861,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -4339,19 +4885,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>11</v>
@@ -4365,17 +4911,17 @@
     </row>
     <row r="50" spans="1:9" hidden="1">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>11</v>
@@ -4386,17 +4932,17 @@
     </row>
     <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" t="s">
         <v>134</v>
-      </c>
-      <c r="E51" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" t="s">
-        <v>138</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>11</v>
@@ -4407,17 +4953,17 @@
     </row>
     <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
@@ -4428,17 +4974,17 @@
     </row>
     <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
@@ -4449,17 +4995,17 @@
     </row>
     <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>11</v>
@@ -4470,17 +5016,17 @@
     </row>
     <row r="55" spans="1:9" hidden="1">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>11</v>
@@ -4491,17 +5037,17 @@
     </row>
     <row r="56" spans="1:9" hidden="1">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>795</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>11</v>
@@ -4512,17 +5058,17 @@
     </row>
     <row r="57" spans="1:9" hidden="1">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>11</v>
@@ -4533,17 +5079,17 @@
     </row>
     <row r="58" spans="1:9" hidden="1">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>11</v>
@@ -4554,17 +5100,17 @@
     </row>
     <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -4575,17 +5121,17 @@
     </row>
     <row r="60" spans="1:9" hidden="1">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -4596,17 +5142,17 @@
     </row>
     <row r="61" spans="1:9" hidden="1">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F61" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -4617,32 +5163,32 @@
     </row>
     <row r="62" spans="1:9" hidden="1">
       <c r="A62" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="F62" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>11</v>
@@ -4653,17 +5199,17 @@
     </row>
     <row r="64" spans="1:9" hidden="1">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>11</v>
@@ -4674,17 +5220,17 @@
     </row>
     <row r="65" spans="1:10" hidden="1">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -4695,17 +5241,17 @@
     </row>
     <row r="66" spans="1:10" hidden="1">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -4714,9 +5260,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -4724,10 +5270,10 @@
         <v>8</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>11</v>
@@ -4740,18 +5286,18 @@
     </row>
     <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="4" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>173</v>
+        <v>708</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>11</v>
@@ -4764,18 +5310,18 @@
     </row>
     <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>11</v>
@@ -4788,17 +5334,17 @@
     </row>
     <row r="70" spans="1:10" hidden="1">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>825</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>797</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>11</v>
@@ -4809,17 +5355,17 @@
     </row>
     <row r="71" spans="1:10" hidden="1">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>11</v>
@@ -4830,17 +5376,17 @@
     </row>
     <row r="72" spans="1:10" hidden="1">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>11</v>
@@ -4849,19 +5395,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>11</v>
@@ -4870,19 +5416,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>755</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="36" t="s">
         <v>38</v>
-      </c>
-      <c r="F74" s="36" t="s">
-        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>11</v>
@@ -4894,97 +5440,97 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
-      <c r="A75" t="s">
-        <v>665</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" t="s">
+    <row r="75" spans="1:10" s="43" customFormat="1">
+      <c r="A75" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E75" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" t="s">
-        <v>189</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="E75" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A76" s="28" t="s">
-        <v>573</v>
+        <v>826</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I76" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J76" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A77" s="28" t="s">
-        <v>575</v>
+        <v>827</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I77" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H78" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>17</v>
@@ -4992,23 +5538,23 @@
     </row>
     <row r="79" spans="1:10" hidden="1">
       <c r="A79" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H79" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>17</v>
@@ -5016,23 +5562,23 @@
     </row>
     <row r="80" spans="1:10" hidden="1">
       <c r="A80" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>17</v>
@@ -5040,23 +5586,23 @@
     </row>
     <row r="81" spans="1:10" hidden="1">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F81" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H81" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>17</v>
@@ -5064,23 +5610,23 @@
     </row>
     <row r="82" spans="1:10" hidden="1">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F82" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H82" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>17</v>
@@ -5088,47 +5634,47 @@
     </row>
     <row r="83" spans="1:10" hidden="1">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F83" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>17</v>
@@ -5136,24 +5682,24 @@
     </row>
     <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="23"/>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>17</v>
@@ -5161,23 +5707,23 @@
     </row>
     <row r="86" spans="1:10" hidden="1">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F86" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>17</v>
@@ -5185,53 +5731,53 @@
     </row>
     <row r="87" spans="1:10" hidden="1">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H87" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
-      <c r="A88" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="4" t="s">
+    <row r="88" spans="1:10" s="43" customFormat="1">
+      <c r="A88" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" s="45"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="12"/>
-    </row>
-    <row r="89" spans="1:10" hidden="1">
+      <c r="E88" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="F88" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="G88" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H88" s="45"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="45"/>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
@@ -5239,10 +5785,10 @@
         <v>8</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="7"/>
@@ -5250,12 +5796,12 @@
         <v>17</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="7" t="s">
-        <v>241</v>
+        <v>754</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -5263,10 +5809,10 @@
         <v>8</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="7"/>
@@ -5274,28 +5820,28 @@
         <v>17</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:10" hidden="1">
       <c r="A91" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>17</v>
@@ -5303,23 +5849,23 @@
     </row>
     <row r="92" spans="1:10" hidden="1">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H92" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>17</v>
@@ -5327,23 +5873,23 @@
     </row>
     <row r="93" spans="1:10" hidden="1">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H93" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>17</v>
@@ -5351,23 +5897,23 @@
     </row>
     <row r="94" spans="1:10" hidden="1">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>17</v>
@@ -5375,23 +5921,23 @@
     </row>
     <row r="95" spans="1:10" hidden="1">
       <c r="A95" t="s">
-        <v>590</v>
+        <v>796</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="F95" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H95" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>17</v>
@@ -5399,23 +5945,23 @@
     </row>
     <row r="96" spans="1:10" hidden="1">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>743</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F96" t="s">
-        <v>231</v>
+        <v>742</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>17</v>
@@ -5423,23 +5969,23 @@
     </row>
     <row r="97" spans="1:10" hidden="1">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F97" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>17</v>
@@ -5447,29 +5993,29 @@
     </row>
     <row r="98" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A98" s="28" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="28" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G98" s="29"/>
       <c r="I98" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -5477,10 +6023,10 @@
         <v>8</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="7"/>
@@ -5488,12 +6034,12 @@
         <v>17</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="9" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10"/>
@@ -5501,10 +6047,10 @@
         <v>8</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="9"/>
@@ -5512,12 +6058,12 @@
         <v>17</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="9" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
@@ -5525,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="9"/>
@@ -5536,12 +6082,12 @@
         <v>17</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="9" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
@@ -5549,10 +6095,10 @@
         <v>8</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9"/>
@@ -5560,12 +6106,12 @@
         <v>17</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -5573,10 +6119,10 @@
         <v>8</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="7"/>
@@ -5584,331 +6130,331 @@
         <v>17</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A104" s="28" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G104" s="29"/>
       <c r="I104" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J104" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A105" s="28" t="s">
-        <v>689</v>
+        <v>828</v>
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="G105" s="29"/>
       <c r="I105" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J105" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A106" s="28" t="s">
-        <v>263</v>
+        <v>846</v>
       </c>
       <c r="C106" s="29"/>
       <c r="D106" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F106" s="28" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G106" s="29"/>
       <c r="I106" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J106" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A107" s="28" t="s">
-        <v>265</v>
+        <v>765</v>
       </c>
       <c r="C107" s="29"/>
       <c r="D107" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G107" s="29"/>
       <c r="I107" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A108" s="28" t="s">
-        <v>268</v>
+        <v>767</v>
       </c>
       <c r="C108" s="29"/>
       <c r="D108" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G108" s="29"/>
       <c r="I108" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J108" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A109" s="28" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C109" s="29"/>
       <c r="D109" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G109" s="29"/>
       <c r="I109" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J109" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A110" s="28" t="s">
-        <v>274</v>
+        <v>847</v>
       </c>
       <c r="C110" s="29"/>
       <c r="D110" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G110" s="29"/>
       <c r="I110" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J110" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A111" s="28" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C111" s="29"/>
       <c r="D111" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G111" s="29"/>
       <c r="I111" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A112" s="28" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G112" s="29"/>
       <c r="I112" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A113" s="28" t="s">
-        <v>552</v>
+        <v>848</v>
       </c>
       <c r="C113" s="29"/>
       <c r="D113" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G113" s="29"/>
       <c r="I113" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A114" s="28" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C114" s="29"/>
       <c r="D114" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G114" s="29"/>
       <c r="I114" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J114" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A115" s="28" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G115" s="29"/>
       <c r="I115" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J115" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A116" s="28" t="s">
-        <v>282</v>
+        <v>849</v>
       </c>
       <c r="C116" s="29"/>
       <c r="D116" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="G116" s="29"/>
       <c r="I116" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J116" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="28" customFormat="1" hidden="1">
       <c r="A117" s="28" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C117" s="29"/>
       <c r="D117" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G117" s="29"/>
       <c r="I117" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J117" s="28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:10" hidden="1">
       <c r="A118" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="7"/>
@@ -5916,23 +6462,23 @@
         <v>17</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="7"/>
@@ -5940,67 +6486,67 @@
         <v>17</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A120" s="19" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="19" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G120" s="20"/>
       <c r="I120" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A121" s="19" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="19" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G121" s="20"/>
       <c r="I121" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J121" s="19" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:10" hidden="1">
       <c r="A122" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="7"/>
@@ -6008,23 +6554,23 @@
         <v>17</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:10" hidden="1">
       <c r="A123" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="7"/>
@@ -6032,23 +6578,23 @@
         <v>17</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1">
       <c r="A124" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="7" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="7"/>
@@ -6056,23 +6602,23 @@
         <v>17</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1">
       <c r="A125" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="7"/>
@@ -6080,23 +6626,23 @@
         <v>17</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1">
       <c r="A126" s="9" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="9"/>
@@ -6104,23 +6650,23 @@
         <v>17</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1">
       <c r="A127" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="9"/>
@@ -6128,23 +6674,23 @@
         <v>17</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1">
       <c r="A128" s="9" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="9"/>
@@ -6152,23 +6698,23 @@
         <v>17</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:10" hidden="1">
       <c r="A129" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="7"/>
@@ -6179,18 +6725,18 @@
     </row>
     <row r="130" spans="1:10" hidden="1">
       <c r="A130" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="7"/>
@@ -6201,18 +6747,18 @@
     </row>
     <row r="131" spans="1:10" hidden="1">
       <c r="A131" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="7"/>
@@ -6223,18 +6769,18 @@
     </row>
     <row r="132" spans="1:10" hidden="1">
       <c r="A132" s="7" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="7"/>
@@ -6242,23 +6788,23 @@
         <v>17</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1">
       <c r="A133" s="7" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="7"/>
@@ -6266,23 +6812,23 @@
         <v>17</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:10" hidden="1">
       <c r="A134" s="7" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="7"/>
@@ -6293,18 +6839,18 @@
     </row>
     <row r="135" spans="1:10" hidden="1">
       <c r="A135" s="7" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="7"/>
@@ -6315,18 +6861,18 @@
     </row>
     <row r="136" spans="1:10" hidden="1">
       <c r="A136" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="7"/>
@@ -6337,18 +6883,18 @@
     </row>
     <row r="137" spans="1:10" hidden="1">
       <c r="A137" s="7" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="7"/>
@@ -6356,23 +6902,23 @@
         <v>17</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:10" hidden="1">
       <c r="A138" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="7"/>
@@ -6383,18 +6929,18 @@
     </row>
     <row r="139" spans="1:10" hidden="1">
       <c r="A139" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="7"/>
@@ -6405,18 +6951,18 @@
     </row>
     <row r="140" spans="1:10" hidden="1">
       <c r="A140" s="9" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="9" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="9"/>
@@ -6424,23 +6970,23 @@
         <v>17</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
       <c r="A141" s="11" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="24"/>
       <c r="D141" s="9" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="9"/>
@@ -6448,23 +6994,23 @@
         <v>17</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:10" hidden="1">
       <c r="A142" s="9" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="9" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="9"/>
@@ -6472,371 +7018,371 @@
         <v>17</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A143" s="19" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="G143" s="20"/>
       <c r="I143" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A144" s="19" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C144" s="20"/>
       <c r="D144" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G144" s="20"/>
       <c r="I144" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A145" s="19" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G145" s="20"/>
       <c r="I145" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A146" s="19" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G146" s="20"/>
       <c r="I146" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A147" s="19" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G147" s="20"/>
       <c r="I147" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J147" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A148" s="19" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G148" s="20"/>
       <c r="I148" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J148" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A149" s="19" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="G149" s="20"/>
       <c r="I149" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J149" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A150" s="19" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C150" s="20"/>
       <c r="D150" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="G150" s="20"/>
       <c r="I150" s="20"/>
     </row>
     <row r="151" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A151" s="19" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C151" s="20"/>
       <c r="D151" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G151" s="20"/>
       <c r="I151" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J151" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A152" s="19" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C152" s="20"/>
       <c r="D152" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G152" s="20"/>
       <c r="I152" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J152" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A153" s="19" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C153" s="20"/>
       <c r="D153" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="G153" s="20"/>
       <c r="I153" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J153" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A154" s="19" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G154" s="20"/>
       <c r="I154" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J154" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A155" s="19" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="G155" s="20"/>
       <c r="I155" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J155" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A156" s="21" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="25"/>
       <c r="D156" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G156" s="20"/>
       <c r="I156" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J156" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A157" s="19" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C157" s="20"/>
       <c r="D157" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G157" s="20"/>
       <c r="I157" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J157" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="19" customFormat="1" hidden="1">
       <c r="A158" s="19" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C158" s="20"/>
       <c r="D158" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G158" s="20"/>
       <c r="I158" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J158" s="19" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1">
       <c r="A159" s="7" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
       <c r="D159" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="7"/>
@@ -6844,23 +7390,23 @@
         <v>17</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:10" hidden="1">
       <c r="A160" s="9" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="9"/>
@@ -6868,23 +7414,23 @@
         <v>17</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:10" hidden="1">
       <c r="A161" s="9" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="9"/>
@@ -6892,23 +7438,23 @@
         <v>17</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1">
       <c r="A162" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="7"/>
@@ -6916,23 +7462,23 @@
         <v>17</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:10" hidden="1">
       <c r="A163" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
       <c r="D163" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="7"/>
@@ -6940,23 +7486,23 @@
         <v>17</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:10" hidden="1">
       <c r="A164" s="9" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="9"/>
@@ -6964,23 +7510,23 @@
         <v>17</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1">
       <c r="A165" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
       <c r="D165" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="7"/>
@@ -6988,23 +7534,23 @@
         <v>17</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1">
       <c r="A166" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="7"/>
@@ -7012,23 +7558,23 @@
         <v>17</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:10" hidden="1">
       <c r="A167" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
       <c r="D167" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="7"/>
@@ -7036,23 +7582,23 @@
         <v>17</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:10" hidden="1">
       <c r="A168" s="9" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="9"/>
@@ -7060,23 +7606,23 @@
         <v>17</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:10" hidden="1">
       <c r="A169" s="9" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="9"/>
@@ -7084,23 +7630,23 @@
         <v>17</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="170" spans="1:10" hidden="1">
       <c r="A170" s="9" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="9"/>
@@ -7108,23 +7654,23 @@
         <v>17</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:10" hidden="1">
       <c r="A171" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
       <c r="D171" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="G171" s="8"/>
       <c r="H171" s="7"/>
@@ -7132,23 +7678,23 @@
         <v>17</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="172" spans="1:10" hidden="1">
       <c r="A172" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
       <c r="D172" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="7"/>
@@ -7156,39 +7702,39 @@
         <v>17</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:10" hidden="1">
       <c r="A173" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="174" spans="1:10" hidden="1">
       <c r="A174" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
       <c r="D174" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="7"/>
@@ -7196,23 +7742,23 @@
         <v>17</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:10" hidden="1">
       <c r="A175" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
       <c r="D175" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="7"/>
@@ -7220,23 +7766,23 @@
         <v>17</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:10" hidden="1">
       <c r="A176" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="7"/>
@@ -7244,30 +7790,30 @@
         <v>17</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" spans="1:10" hidden="1">
       <c r="A177" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E177" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="F177" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="12" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="13"/>
@@ -7275,21 +7821,21 @@
         <v>8</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="13"/>
       <c r="J178" s="12"/>
     </row>
-    <row r="179" spans="1:10" hidden="1">
+    <row r="179" spans="1:10">
       <c r="A179" s="12" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="13"/>
@@ -7297,21 +7843,21 @@
         <v>8</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="13"/>
       <c r="J179" s="12"/>
     </row>
-    <row r="180" spans="1:10" hidden="1">
+    <row r="180" spans="1:10">
       <c r="A180" s="12" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="13"/>
@@ -7319,10 +7865,10 @@
         <v>8</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="12"/>
@@ -7331,18 +7877,18 @@
     </row>
     <row r="181" spans="1:10" hidden="1">
       <c r="A181" s="12" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="B181" s="12"/>
       <c r="C181" s="13"/>
       <c r="D181" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="12"/>
@@ -7351,20 +7897,20 @@
     </row>
     <row r="182" spans="1:10" hidden="1">
       <c r="A182" s="12" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="13">
         <v>25</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="12"/>
@@ -7373,18 +7919,18 @@
     </row>
     <row r="183" spans="1:10" hidden="1">
       <c r="A183" s="12" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="13"/>
       <c r="D183" s="12" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="12"/>
@@ -7393,18 +7939,18 @@
     </row>
     <row r="184" spans="1:10" hidden="1">
       <c r="A184" s="34" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="13"/>
       <c r="D184" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="12"/>
@@ -7413,18 +7959,18 @@
     </row>
     <row r="185" spans="1:10" hidden="1">
       <c r="A185" s="34" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="13"/>
       <c r="D185" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G185" s="13"/>
       <c r="H185" s="12"/>
@@ -7433,18 +7979,18 @@
     </row>
     <row r="186" spans="1:10" hidden="1">
       <c r="A186" s="12" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="13"/>
       <c r="D186" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="F186" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G186" s="13"/>
       <c r="H186" s="12"/>
@@ -7453,18 +7999,18 @@
     </row>
     <row r="187" spans="1:10" hidden="1">
       <c r="A187" s="12" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="13"/>
       <c r="D187" s="12" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="G187" s="13"/>
       <c r="H187" s="12"/>
@@ -7473,20 +8019,20 @@
     </row>
     <row r="188" spans="1:10" hidden="1">
       <c r="A188" s="27" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="B188" s="27"/>
       <c r="C188" s="1">
         <v>25</v>
       </c>
       <c r="D188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F188" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>11</v>
@@ -7500,20 +8046,20 @@
     </row>
     <row r="189" spans="1:10" hidden="1">
       <c r="A189" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B189" s="27"/>
       <c r="C189" s="1">
         <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E189" t="s">
+        <v>58</v>
+      </c>
+      <c r="F189" t="s">
         <v>59</v>
-      </c>
-      <c r="F189" t="s">
-        <v>60</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>11</v>
@@ -7527,22 +8073,22 @@
     </row>
     <row r="190" spans="1:10" hidden="1">
       <c r="A190" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C190" s="1">
         <v>25</v>
       </c>
       <c r="D190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E190" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F190" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>11</v>
@@ -7556,20 +8102,20 @@
     </row>
     <row r="191" spans="1:10" hidden="1">
       <c r="A191" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B191" s="27"/>
       <c r="C191" s="1">
         <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E191" t="s">
+        <v>63</v>
+      </c>
+      <c r="F191" t="s">
         <v>64</v>
-      </c>
-      <c r="F191" t="s">
-        <v>65</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>11</v>
@@ -7583,20 +8129,20 @@
     </row>
     <row r="192" spans="1:10" hidden="1">
       <c r="A192" s="26" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="B192" s="26"/>
       <c r="C192" s="13">
         <v>25</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="G192" s="13"/>
       <c r="H192" s="12"/>
@@ -7605,20 +8151,20 @@
     </row>
     <row r="193" spans="1:10" hidden="1">
       <c r="A193" s="26" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="B193" s="26"/>
       <c r="C193" s="13">
         <v>25</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="F193" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="G193" s="13"/>
       <c r="H193" s="12"/>
@@ -7627,20 +8173,20 @@
     </row>
     <row r="194" spans="1:10" hidden="1">
       <c r="A194" s="26" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B194" s="26"/>
       <c r="C194" s="13">
         <v>25</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G194" s="13"/>
       <c r="H194" s="12"/>
@@ -7649,20 +8195,20 @@
     </row>
     <row r="195" spans="1:10" hidden="1">
       <c r="A195" s="26" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B195" s="26"/>
       <c r="C195" s="13">
         <v>25</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="G195" s="13"/>
       <c r="H195" s="12"/>
@@ -7671,18 +8217,18 @@
     </row>
     <row r="196" spans="1:10" hidden="1">
       <c r="A196" s="12" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="B196" s="12"/>
       <c r="C196" s="13"/>
       <c r="D196" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="G196" s="13"/>
       <c r="H196" s="12"/>
@@ -7691,18 +8237,18 @@
     </row>
     <row r="197" spans="1:10" hidden="1">
       <c r="A197" s="12" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="13"/>
       <c r="D197" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="G197" s="13"/>
       <c r="H197" s="12"/>
@@ -7711,18 +8257,18 @@
     </row>
     <row r="198" spans="1:10" hidden="1">
       <c r="A198" s="12" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="13"/>
       <c r="D198" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="G198" s="13"/>
       <c r="H198" s="12"/>
@@ -7731,18 +8277,18 @@
     </row>
     <row r="199" spans="1:10" hidden="1">
       <c r="A199" s="12" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="13"/>
       <c r="D199" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E199" s="22">
         <v>0.77083333333333337</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="G199" s="13"/>
       <c r="H199" s="12"/>
@@ -7751,36 +8297,36 @@
     </row>
     <row r="200" spans="1:10" hidden="1">
       <c r="A200" s="12" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="13"/>
       <c r="D200" s="19" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E200" s="12"/>
       <c r="F200" s="12" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G200" s="13"/>
       <c r="H200" s="12"/>
       <c r="I200" s="13"/>
       <c r="J200" s="12"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1">
       <c r="A201" s="12" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="13"/>
       <c r="D201" s="12" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="G201" s="13"/>
       <c r="H201" s="12"/>
@@ -7789,16 +8335,16 @@
     </row>
     <row r="202" spans="1:10" hidden="1">
       <c r="A202" s="12" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="13"/>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E202" s="12"/>
       <c r="F202" s="12" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="G202" s="13"/>
       <c r="H202" s="12"/>
@@ -7807,18 +8353,18 @@
     </row>
     <row r="203" spans="1:10" hidden="1">
       <c r="A203" s="12" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="13"/>
       <c r="D203" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="G203" s="13"/>
       <c r="H203" s="12"/>
@@ -7827,18 +8373,18 @@
     </row>
     <row r="204" spans="1:10" hidden="1">
       <c r="A204" s="26" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="B204" s="26"/>
       <c r="C204" s="13"/>
       <c r="D204" s="12" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="G204" s="13"/>
       <c r="H204" s="12"/>
@@ -7847,60 +8393,60 @@
     </row>
     <row r="205" spans="1:10" hidden="1">
       <c r="A205" s="12" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="13"/>
       <c r="D205" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="G205" s="13"/>
       <c r="H205" s="12" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="I205" s="13"/>
       <c r="J205" s="12"/>
     </row>
     <row r="206" spans="1:10" hidden="1">
       <c r="A206" s="12" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="13"/>
       <c r="D206" s="12" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="G206" s="13"/>
       <c r="H206" s="12"/>
       <c r="I206" s="13"/>
       <c r="J206" s="12"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1">
       <c r="A207" s="12" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="13"/>
       <c r="D207" s="12" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G207" s="13"/>
       <c r="H207" s="12"/>
@@ -7909,24 +8455,24 @@
     </row>
     <row r="208" spans="1:10" hidden="1">
       <c r="A208" s="12" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="13"/>
       <c r="D208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="F208" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>17</v>
@@ -7935,18 +8481,18 @@
     </row>
     <row r="209" spans="1:10" hidden="1">
       <c r="A209" s="12" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="13"/>
       <c r="D209" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="F209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G209" s="13"/>
       <c r="H209" s="12"/>
@@ -7955,18 +8501,18 @@
     </row>
     <row r="210" spans="1:10" hidden="1">
       <c r="A210" s="12" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="13"/>
       <c r="D210" s="12" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="G210" s="13"/>
       <c r="H210" s="12"/>
@@ -7975,20 +8521,20 @@
     </row>
     <row r="211" spans="1:10" hidden="1">
       <c r="A211" s="15" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B211" s="15"/>
       <c r="C211" s="15">
         <v>1</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="E211" s="15" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="G211" s="13"/>
       <c r="H211" s="12"/>
@@ -7997,18 +8543,18 @@
     </row>
     <row r="212" spans="1:10" hidden="1">
       <c r="A212" s="15" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
       <c r="D212" s="15" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E212" s="15" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="G212" s="13"/>
       <c r="H212" s="12"/>
@@ -8017,20 +8563,20 @@
     </row>
     <row r="213" spans="1:10" hidden="1">
       <c r="A213" s="12" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="13">
         <v>1</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="G213" s="13"/>
       <c r="H213" s="12"/>
@@ -8039,38 +8585,38 @@
     </row>
     <row r="214" spans="1:10" hidden="1">
       <c r="A214" s="12" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="13"/>
       <c r="D214" s="12" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
       <c r="I214" s="35"/>
       <c r="J214" s="35"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1">
       <c r="A215" s="12" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="13"/>
       <c r="D215" s="12" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
@@ -8079,18 +8625,18 @@
     </row>
     <row r="216" spans="1:10" hidden="1">
       <c r="A216" s="12" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="13"/>
       <c r="D216" s="12" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
@@ -8099,16 +8645,16 @@
     </row>
     <row r="217" spans="1:10" hidden="1">
       <c r="A217" s="12" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="13"/>
       <c r="D217" s="12" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -8117,18 +8663,18 @@
     </row>
     <row r="218" spans="1:10" hidden="1">
       <c r="A218" s="12" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="13"/>
       <c r="D218" s="15" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="G218" s="13"/>
       <c r="H218" s="12"/>
@@ -8137,18 +8683,18 @@
     </row>
     <row r="219" spans="1:10" hidden="1">
       <c r="A219" s="12" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="13"/>
       <c r="D219" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="G219" s="13"/>
       <c r="H219" s="12"/>
@@ -8157,40 +8703,40 @@
     </row>
     <row r="220" spans="1:10" hidden="1">
       <c r="A220" s="12" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="13">
         <v>1</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="G220" s="13"/>
       <c r="H220" s="12"/>
       <c r="I220" s="13"/>
       <c r="J220" s="12"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1">
       <c r="A221" s="12" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="13"/>
       <c r="D221" s="12" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="G221" s="13"/>
       <c r="H221" s="12"/>
@@ -8199,25 +8745,25 @@
     </row>
     <row r="222" spans="1:10" hidden="1">
       <c r="A222" s="12" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="13"/>
       <c r="D222" s="15" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E222" s="12"/>
       <c r="F222" s="12" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="G222" s="13"/>
       <c r="H222" s="12"/>
       <c r="I222" s="13"/>
       <c r="J222" s="12"/>
     </row>
-    <row r="223" spans="1:10" hidden="1">
+    <row r="223" spans="1:10">
       <c r="A223" s="12" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="13"/>
@@ -8225,10 +8771,10 @@
         <v>8</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="G223" s="13"/>
       <c r="H223" s="12"/>
@@ -8237,18 +8783,18 @@
     </row>
     <row r="224" spans="1:10" hidden="1">
       <c r="A224" s="12" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="13"/>
       <c r="D224" s="12" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="G224" s="13"/>
       <c r="H224" s="12"/>
@@ -8257,18 +8803,18 @@
     </row>
     <row r="225" spans="1:10" hidden="1">
       <c r="A225" s="12" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="13"/>
       <c r="D225" s="15" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="G225" s="13"/>
       <c r="H225" s="12"/>
@@ -8277,16 +8823,16 @@
     </row>
     <row r="226" spans="1:10" hidden="1">
       <c r="A226" s="12" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="13"/>
       <c r="D226" s="15" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E226" s="12"/>
       <c r="F226" s="12" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="G226" s="13"/>
       <c r="H226" s="12"/>
@@ -8295,18 +8841,18 @@
     </row>
     <row r="227" spans="1:10" hidden="1">
       <c r="A227" s="12" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="13"/>
       <c r="D227" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E227" s="22">
         <v>0.8125</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="G227" s="13"/>
       <c r="H227" s="12"/>
@@ -8327,16 +8873,16 @@
     </row>
     <row r="229" spans="1:10" hidden="1">
       <c r="A229" s="12" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="13"/>
       <c r="D229" s="7" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="G229" s="13"/>
       <c r="H229" s="12"/>
@@ -8345,16 +8891,16 @@
     </row>
     <row r="230" spans="1:10" hidden="1">
       <c r="A230" s="12" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="13"/>
       <c r="D230" s="12" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="E230" s="12"/>
       <c r="F230" s="12" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="G230" s="13"/>
       <c r="H230" s="12"/>
@@ -8363,16 +8909,16 @@
     </row>
     <row r="231" spans="1:10" hidden="1">
       <c r="A231" s="12" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="B231" s="12"/>
       <c r="C231" s="13"/>
       <c r="D231" s="12" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="12" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="G231" s="13"/>
       <c r="H231" s="12"/>
@@ -8381,20 +8927,20 @@
     </row>
     <row r="232" spans="1:10" hidden="1">
       <c r="A232" s="12" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B232" s="12"/>
       <c r="C232" s="13" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="G232" s="13"/>
       <c r="H232" s="12"/>
@@ -8403,33 +8949,603 @@
     </row>
     <row r="233" spans="1:10" hidden="1">
       <c r="A233" s="12" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="B233" s="12"/>
       <c r="C233" s="13" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="G233" s="13"/>
       <c r="H233" s="12"/>
       <c r="I233" s="13"/>
       <c r="J233" s="12"/>
     </row>
+    <row r="234" spans="1:10" hidden="1">
+      <c r="A234" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B234" s="12"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="F234" t="s">
+        <v>762</v>
+      </c>
+      <c r="G234" s="13"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="12"/>
+    </row>
+    <row r="235" spans="1:10" hidden="1">
+      <c r="A235" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="B235" s="12"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="F235" t="s">
+        <v>763</v>
+      </c>
+      <c r="G235" s="13"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="13"/>
+      <c r="J235" s="12"/>
+    </row>
+    <row r="236" spans="1:10" hidden="1">
+      <c r="A236" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B236" s="12"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F236" t="s">
+        <v>737</v>
+      </c>
+      <c r="G236" s="13"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="12"/>
+    </row>
+    <row r="237" spans="1:10" hidden="1">
+      <c r="A237" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B237" s="12"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="F237" t="s">
+        <v>736</v>
+      </c>
+      <c r="G237" s="13"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="12"/>
+    </row>
+    <row r="238" spans="1:10" hidden="1">
+      <c r="A238" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B238" s="12"/>
+      <c r="C238" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G238" s="13"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="12"/>
+    </row>
+    <row r="239" spans="1:10" hidden="1">
+      <c r="A239" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G239" s="13"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="12"/>
+    </row>
+    <row r="240" spans="1:10" hidden="1">
+      <c r="A240" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B240" s="12"/>
+      <c r="C240" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="G240" s="13"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="12"/>
+    </row>
+    <row r="241" spans="1:10" hidden="1">
+      <c r="A241" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="B241" s="12"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="G241" s="13"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="12"/>
+    </row>
+    <row r="242" spans="1:10" hidden="1">
+      <c r="A242" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B242" s="12"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="G242" s="13"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="13"/>
+      <c r="J242" s="12"/>
+    </row>
+    <row r="243" spans="1:10" hidden="1">
+      <c r="A243" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="B243" s="12"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="G243" s="13"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="12"/>
+    </row>
+    <row r="244" spans="1:10" hidden="1">
+      <c r="A244" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="B244" s="12"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="G244" s="13"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="12"/>
+    </row>
+    <row r="245" spans="1:10" hidden="1">
+      <c r="A245" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="B245" s="12"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="G245" s="13"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="13"/>
+      <c r="J245" s="12"/>
+    </row>
+    <row r="246" spans="1:10" hidden="1">
+      <c r="A246" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="B246" s="12"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F246" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="G246" s="13"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="12"/>
+    </row>
+    <row r="247" spans="1:10" hidden="1">
+      <c r="A247" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="B247" s="12"/>
+      <c r="C247" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="G247" s="13"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="12"/>
+    </row>
+    <row r="248" spans="1:10" hidden="1">
+      <c r="A248" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="B248" s="12"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F248" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="G248" s="13"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="12"/>
+    </row>
+    <row r="249" spans="1:10" hidden="1">
+      <c r="A249" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B249" s="12"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="G249" s="13"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="12"/>
+    </row>
+    <row r="250" spans="1:10" hidden="1">
+      <c r="A250" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="B250" s="12"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="G250" s="13"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="12"/>
+    </row>
+    <row r="251" spans="1:10" hidden="1">
+      <c r="A251" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B251" s="12"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="G251" s="13"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="13"/>
+      <c r="J251" s="12"/>
+    </row>
+    <row r="252" spans="1:10" hidden="1">
+      <c r="A252" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="B252" s="12"/>
+      <c r="C252" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="G252" s="13"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="12"/>
+    </row>
+    <row r="253" spans="1:10" hidden="1">
+      <c r="A253" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B253" s="12"/>
+      <c r="C253" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="G253" s="13"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="12"/>
+    </row>
+    <row r="254" spans="1:10" hidden="1">
+      <c r="A254" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="G254" s="13"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="12"/>
+    </row>
+    <row r="255" spans="1:10" hidden="1">
+      <c r="A255" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="B255" s="12"/>
+      <c r="C255" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="G255" s="13"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="12"/>
+    </row>
+    <row r="256" spans="1:10" hidden="1">
+      <c r="A256" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="B256" s="12"/>
+      <c r="C256" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="G256" s="13"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="12"/>
+    </row>
+    <row r="257" spans="1:10" hidden="1">
+      <c r="A257" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B257" s="12"/>
+      <c r="C257" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G257" s="13"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="12"/>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
+      <c r="A258" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B258" s="12"/>
+      <c r="C258" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="G258" s="13"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="12"/>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
+      <c r="A259" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="B259" s="12"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="G259" s="13"/>
+      <c r="H259" s="12"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="12"/>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
+      <c r="A260" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="B260" s="12"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="G260" s="13"/>
+      <c r="H260" s="12"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="12"/>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B261" s="12"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="G261" s="13"/>
+      <c r="H261" s="12"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="12"/>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B262" s="12"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G262" s="13"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="13"/>
+      <c r="J262" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G233">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G262">
       <formula1>"深圳,南京"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I233">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I262">
       <formula1>"待完成,已完成,废弃,需求不确定"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8443,149 +9559,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="1" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="54.625" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>730</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" t="s">
+        <v>821</v>
+      </c>
+      <c r="I4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="G5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A7" s="18" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5">
+      <c r="A19" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>729</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>684</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="21" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="40.5">
-      <c r="A16" s="38" t="s">
-        <v>681</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>471</v>
-      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>452</v>
+      </c>
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A2:C3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
@@ -8596,7 +9801,7 @@
   <dimension ref="A3:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8606,10 +9811,10 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -8621,43 +9826,235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="B1" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>517521</v>
+      </c>
+      <c r="C1" t="str">
+        <f>A1&amp;","&amp;A2</f>
+        <v>517521,517502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>517502</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;","&amp;A3</f>
+        <v>517502,513131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>513131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>516083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>515905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>517481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>508205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>512933</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25">
+      <c r="A1" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="41" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27">
+      <c r="A3" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="81">
+      <c r="A4" s="41" t="s">
+        <v>772</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40.5">
+      <c r="A5" s="41" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>787</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>